--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$V$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$W$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -596,16 +596,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23549,16 +23552,16 @@
   <dimension ref="A1:ET132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="11.26953125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="11.26953125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:150" x14ac:dyDescent="0.25">
@@ -23573,7 +23576,7 @@
     </row>
     <row r="3" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:150" x14ac:dyDescent="0.25">
@@ -23583,7 +23586,7 @@
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:150" x14ac:dyDescent="0.25">
@@ -23616,6 +23619,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -23683,6 +23687,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23755,7 +23762,9 @@
       <c r="V12" s="8">
         <v>70273.342271059504</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>64692.698979759836</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23951,7 +23960,9 @@
       <c r="V13" s="8">
         <v>183382.83593426819</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>223023.27367358812</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24299,7 +24310,9 @@
       <c r="V15" s="12">
         <v>253656.17820532771</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="12">
+        <v>287715.97265334794</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24451,6 +24464,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -24632,7 +24646,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="9"/>
+      <c r="W19" s="15"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -24773,7 +24787,7 @@
     </row>
     <row r="22" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:150" x14ac:dyDescent="0.25">
@@ -24783,7 +24797,7 @@
     </row>
     <row r="25" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:150" x14ac:dyDescent="0.25">
@@ -24816,6 +24830,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -24883,6 +24898,9 @@
       </c>
       <c r="V29" s="16">
         <v>2020</v>
+      </c>
+      <c r="W29" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24955,7 +24973,9 @@
       <c r="V31" s="8">
         <v>65639.387875480505</v>
       </c>
-      <c r="W31" s="9"/>
+      <c r="W31" s="8">
+        <v>59815.886705201076</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -25151,7 +25171,9 @@
       <c r="V32" s="8">
         <v>166749.40268273299</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="8">
+        <v>190635.90635744607</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -25499,7 +25521,9 @@
       <c r="V34" s="12">
         <v>232388.79055821348</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="12">
+        <v>250451.79306264716</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25651,6 +25675,7 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
     </row>
     <row r="36" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -25973,7 +25998,7 @@
     </row>
     <row r="41" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:150" x14ac:dyDescent="0.25">
@@ -25983,7 +26008,7 @@
     </row>
     <row r="44" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:150" x14ac:dyDescent="0.25">
@@ -26015,6 +26040,8 @@
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
     </row>
     <row r="48" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -26078,8 +26105,12 @@
         <v>14</v>
       </c>
       <c r="U48" s="18" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V48" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" s="18"/>
     </row>
     <row r="49" spans="1:145" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -26148,7 +26179,10 @@
       <c r="U50" s="19">
         <v>-55.395924212979416</v>
       </c>
-      <c r="W50" s="9"/>
+      <c r="V50" s="19">
+        <v>-7.9413375128422388</v>
+      </c>
+      <c r="W50" s="19"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
@@ -26336,7 +26370,10 @@
       <c r="U51" s="19">
         <v>-33.127732406430965</v>
       </c>
-      <c r="W51" s="9"/>
+      <c r="V51" s="19">
+        <v>21.616220262581521</v>
+      </c>
+      <c r="W51" s="19"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
@@ -26482,6 +26519,7 @@
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
@@ -26670,7 +26708,10 @@
       <c r="U53" s="19">
         <v>-41.253059072030609</v>
       </c>
-      <c r="W53" s="9"/>
+      <c r="V53" s="19">
+        <v>13.427543807133205</v>
+      </c>
+      <c r="W53" s="19"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -26816,6 +26857,8 @@
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
     </row>
     <row r="55" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
@@ -26844,6 +26887,7 @@
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
@@ -26990,6 +27034,7 @@
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
@@ -27126,7 +27171,7 @@
     </row>
     <row r="60" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:145" x14ac:dyDescent="0.25">
@@ -27136,7 +27181,7 @@
     </row>
     <row r="63" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:145" x14ac:dyDescent="0.25">
@@ -27168,6 +27213,8 @@
       <c r="S66" s="17"/>
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
     </row>
     <row r="67" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -27231,8 +27278,12 @@
         <v>14</v>
       </c>
       <c r="U67" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" s="6"/>
     </row>
     <row r="68" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -27301,7 +27352,10 @@
       <c r="U69" s="19">
         <v>-57.898397079184548</v>
       </c>
-      <c r="W69" s="9"/>
+      <c r="V69" s="19">
+        <v>-8.8719614225025225</v>
+      </c>
+      <c r="W69" s="19"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -27489,7 +27543,10 @@
       <c r="U70" s="19">
         <v>-38.191823631885946</v>
       </c>
-      <c r="W70" s="9"/>
+      <c r="V70" s="19">
+        <v>14.324791147924486</v>
+      </c>
+      <c r="W70" s="19"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -27635,6 +27692,7 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -27823,7 +27881,10 @@
       <c r="U72" s="19">
         <v>-45.409228438675967</v>
       </c>
-      <c r="W72" s="9"/>
+      <c r="V72" s="19">
+        <v>7.7727511989907612</v>
+      </c>
+      <c r="W72" s="19"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -27969,6 +28030,8 @@
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
       <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
     </row>
     <row r="74" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
@@ -27997,6 +28060,7 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -28285,7 +28349,7 @@
     </row>
     <row r="78" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:150" x14ac:dyDescent="0.25">
@@ -28295,7 +28359,7 @@
     </row>
     <row r="81" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:150" x14ac:dyDescent="0.25">
@@ -28328,6 +28392,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
     </row>
     <row r="85" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -28395,6 +28460,9 @@
       </c>
       <c r="V85" s="16">
         <v>2020</v>
+      </c>
+      <c r="W85" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="86" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28467,7 +28535,9 @@
       <c r="V87" s="19">
         <v>107.05971604179143</v>
       </c>
-      <c r="W87" s="9"/>
+      <c r="W87" s="19">
+        <v>108.1530385039577</v>
+      </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -28663,7 +28733,9 @@
       <c r="V88" s="19">
         <v>109.97510814667379</v>
       </c>
-      <c r="W88" s="9"/>
+      <c r="W88" s="19">
+        <v>116.98912231959864</v>
+      </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -29011,7 +29083,9 @@
       <c r="V90" s="19">
         <v>109.15164091866416</v>
       </c>
-      <c r="W90" s="9"/>
+      <c r="W90" s="19">
+        <v>114.87878331195643</v>
+      </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -29163,6 +29237,7 @@
       <c r="T91" s="13"/>
       <c r="U91" s="13"/>
       <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
@@ -29181,7 +29256,7 @@
     </row>
     <row r="97" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:150" x14ac:dyDescent="0.25">
@@ -29191,7 +29266,7 @@
     </row>
     <row r="100" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:150" x14ac:dyDescent="0.25">
@@ -29224,6 +29299,7 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
     </row>
     <row r="104" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -29291,6 +29367,9 @@
       </c>
       <c r="V104" s="16">
         <v>2020</v>
+      </c>
+      <c r="W104" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="105" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29363,7 +29442,9 @@
       <c r="V106" s="19">
         <v>27.704171358355467</v>
       </c>
-      <c r="W106" s="9"/>
+      <c r="W106" s="19">
+        <v>22.484917463273497</v>
+      </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -29559,7 +29640,9 @@
       <c r="V107" s="19">
         <v>72.295828641644519</v>
       </c>
-      <c r="W107" s="9"/>
+      <c r="W107" s="19">
+        <v>77.51508253672651</v>
+      </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -29907,7 +29990,9 @@
       <c r="V109" s="19">
         <v>100</v>
       </c>
-      <c r="W109" s="9"/>
+      <c r="W109" s="19">
+        <v>100</v>
+      </c>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -30059,6 +30144,7 @@
       <c r="T110" s="13"/>
       <c r="U110" s="13"/>
       <c r="V110" s="13"/>
+      <c r="W110" s="13"/>
     </row>
     <row r="111" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
@@ -30381,7 +30467,7 @@
     </row>
     <row r="116" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:150" x14ac:dyDescent="0.25">
@@ -30391,7 +30477,7 @@
     </row>
     <row r="119" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:150" x14ac:dyDescent="0.25">
@@ -30424,6 +30510,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
     </row>
     <row r="123" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -30491,6 +30578,9 @@
       </c>
       <c r="V123" s="16">
         <v>2020</v>
+      </c>
+      <c r="W123" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="124" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30563,7 +30653,9 @@
       <c r="V125" s="19">
         <v>28.245505180267212</v>
       </c>
-      <c r="W125" s="9"/>
+      <c r="W125" s="19">
+        <v>23.883193637283696</v>
+      </c>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
@@ -30759,7 +30851,9 @@
       <c r="V126" s="19">
         <v>71.754494819732798</v>
       </c>
-      <c r="W126" s="9"/>
+      <c r="W126" s="19">
+        <v>76.116806362716289</v>
+      </c>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
@@ -31107,7 +31201,9 @@
       <c r="V128" s="19">
         <v>100</v>
       </c>
-      <c r="W128" s="9"/>
+      <c r="W128" s="19">
+        <v>100</v>
+      </c>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
@@ -31259,6 +31355,7 @@
       <c r="T129" s="13"/>
       <c r="U129" s="13"/>
       <c r="V129" s="13"/>
+      <c r="W129" s="13"/>
     </row>
     <row r="130" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
@@ -31575,9 +31672,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="21" man="1"/>
-    <brk id="76" max="21" man="1"/>
-    <brk id="94" max="21" man="1"/>
+    <brk id="38" max="22" man="1"/>
+    <brk id="76" max="22" man="1"/>
+    <brk id="94" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F5EF1-0852-4B57-B6BB-33161F317387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -602,19 +603,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -734,9 +735,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23545,16 +23546,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:ET132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23576,7 +23577,7 @@
     </row>
     <row r="3" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:150" x14ac:dyDescent="0.25">
@@ -23586,7 +23587,7 @@
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:150" x14ac:dyDescent="0.25">
@@ -23760,10 +23761,10 @@
         <v>157549.15000729251</v>
       </c>
       <c r="V12" s="8">
-        <v>70273.342271059504</v>
+        <v>70158.52409182163</v>
       </c>
       <c r="W12" s="8">
-        <v>64692.698979759836</v>
+        <v>63510.152119810766</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -23958,10 +23959,10 @@
         <v>274228.52930428181</v>
       </c>
       <c r="V13" s="8">
-        <v>183382.83593426819</v>
+        <v>182854.70715526654</v>
       </c>
       <c r="W13" s="8">
-        <v>223023.27367358812</v>
+        <v>221733.75312728208</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -24308,10 +24309,10 @@
         <v>431777.67931157432</v>
       </c>
       <c r="V15" s="12">
-        <v>253656.17820532771</v>
+        <v>253013.23124708817</v>
       </c>
       <c r="W15" s="12">
-        <v>287715.97265334794</v>
+        <v>285243.90524709283</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -24787,7 +24788,7 @@
     </row>
     <row r="22" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:150" x14ac:dyDescent="0.25">
@@ -24797,7 +24798,7 @@
     </row>
     <row r="25" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:150" x14ac:dyDescent="0.25">
@@ -24971,10 +24972,10 @@
         <v>155907.0993067291</v>
       </c>
       <c r="V31" s="8">
-        <v>65639.387875480505</v>
+        <v>65531.636227642804</v>
       </c>
       <c r="W31" s="8">
-        <v>59815.886705201076</v>
+        <v>58722.041952108862</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -25169,10 +25170,10 @@
         <v>269785.34634255379</v>
       </c>
       <c r="V32" s="8">
-        <v>166749.40268273299</v>
+        <v>166279.04834829271</v>
       </c>
       <c r="W32" s="8">
-        <v>190635.90635744607</v>
+        <v>189734.83005876857</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -25519,10 +25520,10 @@
         <v>425692.44564928289</v>
       </c>
       <c r="V34" s="12">
-        <v>232388.79055821348</v>
+        <v>231810.68457593551</v>
       </c>
       <c r="W34" s="12">
-        <v>250451.79306264716</v>
+        <v>248456.87201087741</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -25998,7 +25999,7 @@
     </row>
     <row r="41" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:150" x14ac:dyDescent="0.25">
@@ -26008,7 +26009,7 @@
     </row>
     <row r="44" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:150" x14ac:dyDescent="0.25">
@@ -26177,10 +26178,10 @@
         <v>8.3659825338257718</v>
       </c>
       <c r="U50" s="19">
-        <v>-55.395924212979416</v>
+        <v>-55.468801901772125</v>
       </c>
       <c r="V50" s="19">
-        <v>-7.9413375128422388</v>
+        <v>-9.476214128036176</v>
       </c>
       <c r="W50" s="19"/>
       <c r="X50" s="9"/>
@@ -26368,10 +26369,10 @@
         <v>6.3300675502966328</v>
       </c>
       <c r="U51" s="19">
-        <v>-33.127732406430965</v>
+        <v>-33.320319508998864</v>
       </c>
       <c r="V51" s="19">
-        <v>21.616220262581521</v>
+        <v>21.262261484470486</v>
       </c>
       <c r="W51" s="19"/>
       <c r="X51" s="9"/>
@@ -26706,10 +26707,10 @@
         <v>7.0640168757777531</v>
       </c>
       <c r="U53" s="19">
-        <v>-41.253059072030609</v>
+        <v>-41.401966018601968</v>
       </c>
       <c r="V53" s="19">
-        <v>13.427543807133205</v>
+        <v>12.738730635208853</v>
       </c>
       <c r="W53" s="19"/>
       <c r="X53" s="9"/>
@@ -27171,7 +27172,7 @@
     </row>
     <row r="60" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:145" x14ac:dyDescent="0.25">
@@ -27181,7 +27182,7 @@
     </row>
     <row r="63" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:145" x14ac:dyDescent="0.25">
@@ -27350,10 +27351,10 @@
         <v>7.2365417369146172</v>
       </c>
       <c r="U69" s="19">
-        <v>-57.898397079184548</v>
+        <v>-57.967509806133378</v>
       </c>
       <c r="V69" s="19">
-        <v>-8.8719614225025225</v>
+        <v>-10.391308179577379</v>
       </c>
       <c r="W69" s="19"/>
       <c r="X69" s="9"/>
@@ -27541,10 +27542,10 @@
         <v>4.6072564858991285</v>
       </c>
       <c r="U70" s="19">
-        <v>-38.191823631885946</v>
+        <v>-38.366167546711871</v>
       </c>
       <c r="V70" s="19">
-        <v>14.324791147924486</v>
+        <v>14.106276132483472</v>
       </c>
       <c r="W70" s="19"/>
       <c r="X70" s="9"/>
@@ -27879,10 +27880,10 @@
         <v>5.5551163681105038</v>
       </c>
       <c r="U72" s="19">
-        <v>-45.409228438675967</v>
+        <v>-45.54503211294513</v>
       </c>
       <c r="V72" s="19">
-        <v>7.7727511989907612</v>
+        <v>7.180940544390225</v>
       </c>
       <c r="W72" s="19"/>
       <c r="X72" s="9"/>
@@ -28349,7 +28350,7 @@
     </row>
     <row r="78" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:150" x14ac:dyDescent="0.25">
@@ -28359,7 +28360,7 @@
     </row>
     <row r="81" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:150" x14ac:dyDescent="0.25">
@@ -28533,10 +28534,10 @@
         <v>101.05322381589107</v>
       </c>
       <c r="V87" s="19">
-        <v>107.05971604179143</v>
+        <v>107.06054072586562</v>
       </c>
       <c r="W87" s="19">
-        <v>108.1530385039577</v>
+        <v>108.15385502365002</v>
       </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
@@ -28731,10 +28732,10 @@
         <v>101.64693265292711</v>
       </c>
       <c r="V88" s="19">
-        <v>109.97510814667379</v>
+        <v>109.96857930787168</v>
       </c>
       <c r="W88" s="19">
-        <v>116.98912231959864</v>
+        <v>116.86507588438147</v>
       </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
@@ -29081,10 +29082,10 @@
         <v>101.42949063918904</v>
       </c>
       <c r="V90" s="19">
-        <v>109.15164091866416</v>
+        <v>109.14649241036483</v>
       </c>
       <c r="W90" s="19">
-        <v>114.87878331195643</v>
+        <v>114.80620477046209</v>
       </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
@@ -29256,7 +29257,7 @@
     </row>
     <row r="97" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:150" x14ac:dyDescent="0.25">
@@ -29266,7 +29267,7 @@
     </row>
     <row r="100" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:150" x14ac:dyDescent="0.25">
@@ -29440,10 +29441,10 @@
         <v>36.488488765442582</v>
       </c>
       <c r="V106" s="19">
-        <v>27.704171358355467</v>
+        <v>27.729191768356998</v>
       </c>
       <c r="W106" s="19">
-        <v>22.484917463273497</v>
+        <v>22.265209160137893</v>
       </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
@@ -29638,10 +29639,10 @@
         <v>63.511511234557418</v>
       </c>
       <c r="V107" s="19">
-        <v>72.295828641644519</v>
+        <v>72.270808231643002</v>
       </c>
       <c r="W107" s="19">
-        <v>77.51508253672651</v>
+        <v>77.734790839862114</v>
       </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
@@ -30467,7 +30468,7 @@
     </row>
     <row r="116" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:150" x14ac:dyDescent="0.25">
@@ -30477,7 +30478,7 @@
     </row>
     <row r="119" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:150" x14ac:dyDescent="0.25">
@@ -30651,10 +30652,10 @@
         <v>36.624351900098546</v>
       </c>
       <c r="V125" s="19">
-        <v>28.245505180267212</v>
+        <v>28.26946322492579</v>
       </c>
       <c r="W125" s="19">
-        <v>23.883193637283696</v>
+        <v>23.634702263150935</v>
       </c>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
@@ -30849,10 +30850,10 @@
         <v>63.375648099901461</v>
       </c>
       <c r="V126" s="19">
-        <v>71.754494819732798</v>
+        <v>71.730536775074214</v>
       </c>
       <c r="W126" s="19">
-        <v>76.116806362716289</v>
+        <v>76.365297736849072</v>
       </c>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>

--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F5EF1-0852-4B57-B6BB-33161F317387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FBDF4-AF82-4E77-ABD3-B2B60707A940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="3495" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$W$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$X$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -603,13 +603,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -694,45 +697,44 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -753,7 +755,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15120,7 +15122,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15829,7 +15831,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15852,7 +15854,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15881,7 +15883,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15944,7 +15946,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15973,7 +15975,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16004,7 +16006,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18398,7 +18400,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18486,7 +18488,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18507,7 +18509,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18564,7 +18566,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18581,7 +18583,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18622,7 +18624,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18635,7 +18637,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18682,7 +18684,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18711,7 +18713,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23128,7 +23130,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23171,7 +23173,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23553,49 +23555,49 @@
   <dimension ref="A1:ET132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="11.26953125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
+    <col min="2" max="24" width="11.21875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -23621,8 +23623,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -23692,11 +23695,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23766,7 +23772,9 @@
       <c r="W12" s="8">
         <v>63510.152119810766</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>98148.486137519794</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23894,7 +23902,7 @@
       <c r="ES12" s="9"/>
       <c r="ET12" s="9"/>
     </row>
-    <row r="13" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23964,7 +23972,9 @@
       <c r="W13" s="8">
         <v>221733.75312728208</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>296196.67905575305</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -24092,8 +24102,8 @@
       <c r="ES13" s="9"/>
       <c r="ET13" s="9"/>
     </row>
-    <row r="14" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -24244,77 +24254,79 @@
       <c r="ES14" s="9"/>
       <c r="ET14" s="9"/>
     </row>
-    <row r="15" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>60116.151892120033</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>65717.188719751706</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>69477.934056200538</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>74454.761427071615</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>83184.526525093504</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>89647.42606824539</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>98380.057525466967</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>111305.45672977674</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>121361.99230414852</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>129533.83248263167</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>145237.32855409742</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>161345.17723785463</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>182830.33387877114</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>202895.19652989635</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>232308.09233142756</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>262370.53108616982</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <v>304557.05372428615</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="11">
         <v>346118.96295903629</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="11">
         <v>403289.25806375197</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="11">
         <v>431777.67931157432</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="11">
         <v>253013.23124708817</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="11">
         <v>285243.90524709283</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="11">
+        <v>394345.16519327287</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24442,38 +24454,39 @@
       <c r="ES15" s="9"/>
       <c r="ET15" s="9"/>
     </row>
-    <row r="16" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+    <row r="16" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -24624,31 +24637,31 @@
       <c r="ES18" s="9"/>
       <c r="ET18" s="9"/>
     </row>
-    <row r="19" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="9"/>
+    <row r="19" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -24776,37 +24789,37 @@
       <c r="ES19" s="9"/>
       <c r="ET19" s="9"/>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -24832,82 +24845,86 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>2000</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>2001</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>2002</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>2003</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>2004</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>2005</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <v>2006</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="15">
         <v>2007</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <v>2008</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <v>2009</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <v>2010</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <v>2011</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="15">
         <v>2012</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="15">
         <v>2013</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="15">
         <v>2014</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="15">
         <v>2015</v>
       </c>
-      <c r="R29" s="16">
+      <c r="R29" s="15">
         <v>2016</v>
       </c>
-      <c r="S29" s="16">
+      <c r="S29" s="15">
         <v>2017</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="15">
         <v>2018</v>
       </c>
-      <c r="U29" s="16">
+      <c r="U29" s="15">
         <v>2019</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29" s="15">
         <v>2020</v>
       </c>
-      <c r="W29" s="16">
+      <c r="W29" s="15">
         <v>2021</v>
       </c>
+      <c r="X29" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="30" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -24977,7 +24994,9 @@
       <c r="W31" s="8">
         <v>58722.041952108862</v>
       </c>
-      <c r="X31" s="9"/>
+      <c r="X31" s="8">
+        <v>87971.763335948854</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -25105,7 +25124,7 @@
       <c r="ES31" s="9"/>
       <c r="ET31" s="9"/>
     </row>
-    <row r="32" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -25175,7 +25194,9 @@
       <c r="W32" s="8">
         <v>189734.83005876857</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="8">
+        <v>239496.28044910158</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -25303,8 +25324,8 @@
       <c r="ES32" s="9"/>
       <c r="ET32" s="9"/>
     </row>
-    <row r="33" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -25455,77 +25476,79 @@
       <c r="ES33" s="9"/>
       <c r="ET33" s="9"/>
     </row>
-    <row r="34" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>141724.9103322232</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>148208.47144079139</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>152228.68736281813</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>158954.45965729994</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>171223.77114596203</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>173818.89605204854</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>179605.61887666379</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>195211.05986570011</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>196690.75214736292</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="11">
         <v>197729.19085825671</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <v>213465.76761879789</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="11">
         <v>226108.16516294843</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <v>242023.79378087528</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="11">
         <v>254205.8239717315</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="11">
         <v>271023.0144807598</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="11">
         <v>297279.10211245529</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="11">
         <v>332612.07439856784</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="11">
         <v>371233.70368712721</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="11">
         <v>403289.25806375197</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="11">
         <v>425692.44564928289</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34" s="11">
         <v>231810.68457593551</v>
       </c>
-      <c r="W34" s="12">
+      <c r="W34" s="11">
         <v>248456.87201087741</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="11">
+        <v>327468.04378505045</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25653,38 +25676,39 @@
       <c r="ES34" s="9"/>
       <c r="ET34" s="9"/>
     </row>
-    <row r="35" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
+    <row r="35" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:150" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -25835,8 +25859,8 @@
       <c r="ES37" s="9"/>
       <c r="ET37" s="9"/>
     </row>
-    <row r="38" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -25987,204 +26011,210 @@
       <c r="ES38" s="9"/>
       <c r="ET38" s="9"/>
     </row>
-    <row r="39" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
     </row>
-    <row r="48" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="K48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="18" t="s">
+      <c r="L48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="18" t="s">
+      <c r="M48" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="18" t="s">
+      <c r="N48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="18" t="s">
+      <c r="O48" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="18" t="s">
+      <c r="P48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="18" t="s">
+      <c r="Q48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="18" t="s">
+      <c r="R48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S48" s="18" t="s">
+      <c r="S48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="T48" s="18" t="s">
+      <c r="T48" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="U48" s="18" t="s">
+      <c r="U48" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="V48" s="18" t="s">
+      <c r="V48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="18"/>
+      <c r="W48" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X48" s="17"/>
     </row>
-    <row r="49" spans="1:145" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:145" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <v>9.2112237293579255</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
         <v>5.4795504578936374</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>7.9692455876201933</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="18">
         <v>10.823330107756178</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>7.0894869050252254</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>13.829860049385715</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="18">
         <v>7.0877670777724404</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="18">
         <v>8.9425573017472004</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="18">
         <v>7.6750536845243289</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="18">
         <v>10.445236405107352</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="18">
         <v>11.507299115156158</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="18">
         <v>23.99668596075341</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N50" s="18">
         <v>7.9587492055885889</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O50" s="18">
         <v>26.023423241502286</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P50" s="18">
         <v>8.4617604557192436</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="Q50" s="18">
         <v>32.755652284313356</v>
       </c>
-      <c r="R50" s="19">
+      <c r="R50" s="18">
         <v>11.867923681193915</v>
       </c>
-      <c r="S50" s="19">
+      <c r="S50" s="18">
         <v>19.145325264831015</v>
       </c>
-      <c r="T50" s="19">
+      <c r="T50" s="18">
         <v>8.3659825338257718</v>
       </c>
-      <c r="U50" s="19">
+      <c r="U50" s="18">
         <v>-55.468801901772125</v>
       </c>
-      <c r="V50" s="19">
+      <c r="V50" s="18">
         <v>-9.476214128036176</v>
       </c>
-      <c r="W50" s="19"/>
-      <c r="X50" s="9"/>
+      <c r="W50" s="18">
+        <v>54.539837902394595</v>
+      </c>
+      <c r="X50" s="18"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
@@ -26307,75 +26337,77 @@
       <c r="EN50" s="9"/>
       <c r="EO50" s="9"/>
     </row>
-    <row r="51" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="18">
         <v>9.3596876043431365</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="18">
         <v>5.8205018348534026</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>6.8396289844010454</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="18">
         <v>12.09064287374872</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="18">
         <v>8.0420119117192002</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="18">
         <v>8.1157464928131731</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="18">
         <v>15.67047945766717</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="18">
         <v>9.070927661149824</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="18">
         <v>6.3690286696370606</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="18">
         <v>12.780403437563834</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="18">
         <v>10.930882874397611</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="18">
         <v>9.1974195418345914</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N51" s="18">
         <v>12.295244911191602</v>
       </c>
-      <c r="O51" s="19">
+      <c r="O51" s="18">
         <v>9.6438044101171556</v>
       </c>
-      <c r="P51" s="19">
+      <c r="P51" s="18">
         <v>15.108118509511442</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="Q51" s="18">
         <v>8.4752183125361711</v>
       </c>
-      <c r="R51" s="19">
+      <c r="R51" s="18">
         <v>14.639235328602609</v>
       </c>
-      <c r="S51" s="19">
+      <c r="S51" s="18">
         <v>15.086637167831867</v>
       </c>
-      <c r="T51" s="19">
+      <c r="T51" s="18">
         <v>6.3300675502966328</v>
       </c>
-      <c r="U51" s="19">
+      <c r="U51" s="18">
         <v>-33.320319508998864</v>
       </c>
-      <c r="V51" s="19">
+      <c r="V51" s="18">
         <v>21.262261484470486</v>
       </c>
-      <c r="W51" s="19"/>
-      <c r="X51" s="9"/>
+      <c r="W51" s="18">
+        <v>33.582133923348579</v>
+      </c>
+      <c r="X51" s="18"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
@@ -26498,7 +26530,7 @@
       <c r="EN51" s="9"/>
       <c r="EO51" s="9"/>
     </row>
-    <row r="52" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -26645,75 +26677,77 @@
       <c r="EN52" s="9"/>
       <c r="EO52" s="9"/>
     </row>
-    <row r="53" spans="1:145" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:145" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="18">
         <v>9.3170248782438421</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="18">
         <v>5.7226205346159702</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>7.1631769690292373</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="18">
         <v>11.724925217271291</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="18">
         <v>7.7693530433238465</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="18">
         <v>9.7410844239674361</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="18">
         <v>13.138230988494655</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="18">
         <v>9.0350786653583981</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="18">
         <v>6.733442672895066</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="18">
         <v>12.123084579907982</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="18">
         <v>11.090708459125523</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="18">
         <v>13.316268269514595</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="18">
         <v>10.974580763184278</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="18">
         <v>14.496595436746702</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="18">
         <v>12.940762610995506</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="18">
         <v>16.07898663903724</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R53" s="18">
         <v>13.646674318164358</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S53" s="18">
         <v>16.517527562187297</v>
       </c>
-      <c r="T53" s="19">
+      <c r="T53" s="18">
         <v>7.0640168757777531</v>
       </c>
-      <c r="U53" s="19">
+      <c r="U53" s="18">
         <v>-41.401966018601968</v>
       </c>
-      <c r="V53" s="19">
+      <c r="V53" s="18">
         <v>12.738730635208853</v>
       </c>
-      <c r="W53" s="19"/>
-      <c r="X53" s="9"/>
+      <c r="W53" s="18">
+        <v>38.248410549445708</v>
+      </c>
+      <c r="X53" s="18"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
@@ -26836,38 +26870,39 @@
       <c r="EN53" s="9"/>
       <c r="EO53" s="9"/>
     </row>
-    <row r="54" spans="1:145" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
+    <row r="54" spans="1:145" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="1:145" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -27013,8 +27048,8 @@
       <c r="EN56" s="9"/>
       <c r="EO56" s="9"/>
     </row>
-    <row r="57" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -27160,64 +27195,65 @@
       <c r="EN57" s="9"/>
       <c r="EO57" s="9"/>
     </row>
-    <row r="58" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -27284,80 +27320,85 @@
       <c r="V67" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="6"/>
+      <c r="W67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X67" s="6"/>
     </row>
-    <row r="68" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="18">
         <v>2.3910940094790334</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="18">
         <v>0.11905834359792777</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="18">
         <v>2.7639215227726339</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="18">
         <v>7.1491060319247737</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="18">
         <v>3.0361721620581079</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="18">
         <v>10.093559396290416</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="18">
         <v>5.7274199248618913</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="18">
         <v>4.9011488824815217</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J69" s="18">
         <v>4.8697487476246977</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="18">
         <v>9.1899524522559375</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L69" s="18">
         <v>8.4035608205206529</v>
       </c>
-      <c r="M69" s="19">
+      <c r="M69" s="18">
         <v>13.936180131068539</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N69" s="18">
         <v>3.0820724783473139</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="18">
         <v>18.388198329047341</v>
       </c>
-      <c r="P69" s="19">
+      <c r="P69" s="18">
         <v>4.5650399196984068</v>
       </c>
-      <c r="Q69" s="19">
+      <c r="Q69" s="18">
         <v>27.121496941732801</v>
       </c>
-      <c r="R69" s="19">
+      <c r="R69" s="18">
         <v>10.406950732112975</v>
       </c>
-      <c r="S69" s="19">
+      <c r="S69" s="18">
         <v>12.764643712411612</v>
       </c>
-      <c r="T69" s="19">
+      <c r="T69" s="18">
         <v>7.2365417369146172</v>
       </c>
-      <c r="U69" s="19">
+      <c r="U69" s="18">
         <v>-57.967509806133378</v>
       </c>
-      <c r="V69" s="19">
+      <c r="V69" s="18">
         <v>-10.391308179577379</v>
       </c>
-      <c r="W69" s="19"/>
-      <c r="X69" s="9"/>
+      <c r="W69" s="18">
+        <v>49.810463688736832</v>
+      </c>
+      <c r="X69" s="18"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -27480,75 +27521,77 @@
       <c r="EN69" s="9"/>
       <c r="EO69" s="9"/>
     </row>
-    <row r="70" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="18">
         <v>5.3139283089610672</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="18">
         <v>3.5660821243210989</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>4.9445224894374178</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="18">
         <v>7.8962314944141667</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="18">
         <v>1.0451973042436435</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70" s="18">
         <v>1.1951104975523208</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H70" s="18">
         <v>9.7051228630086683</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I70" s="18">
         <v>-0.61247978252723101</v>
       </c>
-      <c r="J70" s="19">
+      <c r="J70" s="18">
         <v>-0.98790129187257492</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K70" s="18">
         <v>7.5033329667221693</v>
       </c>
-      <c r="L70" s="19">
+      <c r="L70" s="18">
         <v>4.990571120963196</v>
       </c>
-      <c r="M70" s="19">
+      <c r="M70" s="18">
         <v>4.3642151837203187</v>
       </c>
-      <c r="N70" s="19">
+      <c r="N70" s="18">
         <v>5.8595262696607335</v>
       </c>
-      <c r="O70" s="19">
+      <c r="O70" s="18">
         <v>1.7622360395958623</v>
       </c>
-      <c r="P70" s="19">
+      <c r="P70" s="18">
         <v>12.144692301747838</v>
       </c>
-      <c r="Q70" s="19">
+      <c r="Q70" s="18">
         <v>5.0719620098159197</v>
       </c>
-      <c r="R70" s="19">
+      <c r="R70" s="18">
         <v>12.263385172572654</v>
       </c>
-      <c r="S70" s="19">
+      <c r="S70" s="18">
         <v>6.4374465563470409</v>
       </c>
-      <c r="T70" s="19">
+      <c r="T70" s="18">
         <v>4.6072564858991285</v>
       </c>
-      <c r="U70" s="19">
+      <c r="U70" s="18">
         <v>-38.366167546711871</v>
       </c>
-      <c r="V70" s="19">
+      <c r="V70" s="18">
         <v>14.106276132483472</v>
       </c>
-      <c r="W70" s="19"/>
-      <c r="X70" s="9"/>
+      <c r="W70" s="18">
+        <v>26.226840045615177</v>
+      </c>
+      <c r="X70" s="18"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -27671,8 +27714,8 @@
       <c r="EN70" s="9"/>
       <c r="EO70" s="9"/>
     </row>
-    <row r="71" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -27818,75 +27861,77 @@
       <c r="EN71" s="9"/>
       <c r="EO71" s="9"/>
     </row>
-    <row r="72" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="18">
         <v>4.5747505455249922</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="18">
         <v>2.7125412487860388</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <v>4.4182029097129032</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="18">
         <v>7.7187588917695678</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="18">
         <v>1.5156335412530098</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="18">
         <v>3.329167861520915</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="18">
         <v>8.6887264923224166</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="18">
         <v>0.75799613130567423</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J72" s="18">
         <v>0.5279550256210257</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K72" s="18">
         <v>7.9586512705764392</v>
       </c>
-      <c r="L72" s="19">
+      <c r="L72" s="18">
         <v>5.9224472781636024</v>
       </c>
-      <c r="M72" s="19">
+      <c r="M72" s="18">
         <v>7.0389446601616612</v>
       </c>
-      <c r="N72" s="19">
+      <c r="N72" s="18">
         <v>5.0334018819181239</v>
       </c>
-      <c r="O72" s="19">
+      <c r="O72" s="18">
         <v>6.6155803381194005</v>
       </c>
-      <c r="P72" s="19">
+      <c r="P72" s="18">
         <v>9.6877704950623098</v>
       </c>
-      <c r="Q72" s="19">
+      <c r="Q72" s="18">
         <v>11.885454455102163</v>
       </c>
-      <c r="R72" s="19">
+      <c r="R72" s="18">
         <v>11.611613727010763</v>
       </c>
-      <c r="S72" s="19">
+      <c r="S72" s="18">
         <v>8.634871795918869</v>
       </c>
-      <c r="T72" s="19">
+      <c r="T72" s="18">
         <v>5.5551163681105038</v>
       </c>
-      <c r="U72" s="19">
+      <c r="U72" s="18">
         <v>-45.54503211294513</v>
       </c>
-      <c r="V72" s="19">
+      <c r="V72" s="18">
         <v>7.180940544390225</v>
       </c>
-      <c r="W72" s="19"/>
-      <c r="X72" s="9"/>
+      <c r="W72" s="18">
+        <v>31.80075927652905</v>
+      </c>
+      <c r="X72" s="18"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -28009,38 +28054,39 @@
       <c r="EN72" s="9"/>
       <c r="EO72" s="9"/>
     </row>
-    <row r="73" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
+    <row r="73" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
     </row>
-    <row r="74" spans="1:150" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -28191,8 +28237,8 @@
       <c r="ES75" s="9"/>
       <c r="ET75" s="9"/>
     </row>
-    <row r="76" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -28343,32 +28389,32 @@
       <c r="ES76" s="9"/>
       <c r="ET76" s="9"/>
     </row>
-    <row r="77" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>5</v>
@@ -28394,152 +28440,158 @@
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>2000</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="15">
         <v>2001</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="15">
         <v>2002</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="15">
         <v>2003</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="15">
         <v>2004</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="15">
         <v>2005</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H85" s="15">
         <v>2006</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="15">
         <v>2007</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="15">
         <v>2008</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="15">
         <v>2009</v>
       </c>
-      <c r="L85" s="16">
+      <c r="L85" s="15">
         <v>2010</v>
       </c>
-      <c r="M85" s="16">
+      <c r="M85" s="15">
         <v>2011</v>
       </c>
-      <c r="N85" s="16">
+      <c r="N85" s="15">
         <v>2012</v>
       </c>
-      <c r="O85" s="16">
+      <c r="O85" s="15">
         <v>2013</v>
       </c>
-      <c r="P85" s="16">
+      <c r="P85" s="15">
         <v>2014</v>
       </c>
-      <c r="Q85" s="16">
+      <c r="Q85" s="15">
         <v>2015</v>
       </c>
-      <c r="R85" s="16">
+      <c r="R85" s="15">
         <v>2016</v>
       </c>
-      <c r="S85" s="16">
+      <c r="S85" s="15">
         <v>2017</v>
       </c>
-      <c r="T85" s="16">
+      <c r="T85" s="15">
         <v>2018</v>
       </c>
-      <c r="U85" s="16">
+      <c r="U85" s="15">
         <v>2019</v>
       </c>
-      <c r="V85" s="16">
+      <c r="V85" s="15">
         <v>2020</v>
       </c>
-      <c r="W85" s="16">
+      <c r="W85" s="15">
         <v>2021</v>
       </c>
+      <c r="X85" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="86" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="18">
         <v>48.197897637147804</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="18">
         <v>51.408293202218736</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="18">
         <v>54.160753671574682</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E87" s="18">
         <v>56.904170527211647</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="18">
         <v>58.855457673779185</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G87" s="18">
         <v>61.170758109416411</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H87" s="18">
         <v>63.246740980056956</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I87" s="18">
         <v>64.060508346027262</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J87" s="18">
         <v>66.52849540365338</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K87" s="18">
         <v>68.308157497147235</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L87" s="18">
         <v>69.093450759295223</v>
       </c>
-      <c r="M87" s="19">
+      <c r="M87" s="18">
         <v>71.071688258201647</v>
       </c>
-      <c r="N87" s="19">
+      <c r="N87" s="18">
         <v>77.347281605500555</v>
       </c>
-      <c r="O87" s="19">
+      <c r="O87" s="18">
         <v>81.006479359796316</v>
       </c>
-      <c r="P87" s="19">
+      <c r="P87" s="18">
         <v>86.230840385708049</v>
       </c>
-      <c r="Q87" s="19">
+      <c r="Q87" s="18">
         <v>89.444318684261475</v>
       </c>
-      <c r="R87" s="19">
+      <c r="R87" s="18">
         <v>93.408582778865366</v>
       </c>
-      <c r="S87" s="19">
+      <c r="S87" s="18">
         <v>94.644622826588716</v>
       </c>
-      <c r="T87" s="19">
+      <c r="T87" s="18">
         <v>100</v>
       </c>
-      <c r="U87" s="19">
+      <c r="U87" s="18">
         <v>101.05322381589107</v>
       </c>
-      <c r="V87" s="19">
+      <c r="V87" s="18">
         <v>107.06054072586562</v>
       </c>
-      <c r="W87" s="19">
+      <c r="W87" s="18">
         <v>108.15385502365002</v>
       </c>
-      <c r="X87" s="9"/>
+      <c r="X87" s="18">
+        <v>111.56816962132248</v>
+      </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -28667,77 +28719,79 @@
       <c r="ES87" s="9"/>
       <c r="ET87" s="9"/>
     </row>
-    <row r="88" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="18">
         <v>40.460797575657324</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C88" s="18">
         <v>42.015147038437355</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="18">
         <v>42.929730014654069</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="18">
         <v>43.704962568463571</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F88" s="18">
         <v>45.403970863670295</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88" s="18">
         <v>48.547941829650902</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H88" s="18">
         <v>51.868088742581428</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I88" s="18">
         <v>54.688482514158174</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J88" s="18">
         <v>60.01682612814745</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K88" s="18">
         <v>64.476276963933429</v>
       </c>
-      <c r="L88" s="19">
+      <c r="L88" s="18">
         <v>67.641256577556263</v>
       </c>
-      <c r="M88" s="19">
+      <c r="M88" s="18">
         <v>71.468363594640607</v>
       </c>
-      <c r="N88" s="19">
+      <c r="N88" s="18">
         <v>74.778130316738228</v>
       </c>
-      <c r="O88" s="19">
+      <c r="O88" s="18">
         <v>79.3242587967802</v>
       </c>
-      <c r="P88" s="19">
+      <c r="P88" s="18">
         <v>85.467987487101851</v>
       </c>
-      <c r="Q88" s="19">
+      <c r="Q88" s="18">
         <v>87.726481124612505</v>
       </c>
-      <c r="R88" s="19">
+      <c r="R88" s="18">
         <v>90.567921353690124</v>
       </c>
-      <c r="S88" s="19">
+      <c r="S88" s="18">
         <v>92.484626517610664</v>
       </c>
-      <c r="T88" s="19">
+      <c r="T88" s="18">
         <v>99.999999999999986</v>
       </c>
-      <c r="U88" s="19">
+      <c r="U88" s="18">
         <v>101.64693265292711</v>
       </c>
-      <c r="V88" s="19">
+      <c r="V88" s="18">
         <v>109.96857930787168</v>
       </c>
-      <c r="W88" s="19">
+      <c r="W88" s="18">
         <v>116.86507588438147</v>
       </c>
-      <c r="X88" s="9"/>
+      <c r="X88" s="18">
+        <v>123.67485561793583</v>
+      </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -28865,8 +28919,8 @@
       <c r="ES88" s="9"/>
       <c r="ET88" s="9"/>
     </row>
-    <row r="89" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+    <row r="89" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -29017,77 +29071,79 @@
       <c r="ES89" s="9"/>
       <c r="ET89" s="9"/>
     </row>
-    <row r="90" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="18">
         <v>42.417491569547856</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C90" s="18">
         <v>44.341047499437593</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="18">
         <v>45.640500000245368</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E90" s="18">
         <v>46.840309852012574</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="18">
         <v>48.582346930194475</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90" s="18">
         <v>51.575190099815885</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="18">
         <v>54.775601198214808</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="18">
         <v>57.018007487051122</v>
       </c>
-      <c r="J90" s="19">
+      <c r="J90" s="18">
         <v>61.70193106650116</v>
       </c>
-      <c r="K90" s="19">
+      <c r="K90" s="18">
         <v>65.51072804191503</v>
       </c>
-      <c r="L90" s="19">
+      <c r="L90" s="18">
         <v>68.037760889820419</v>
       </c>
-      <c r="M90" s="19">
+      <c r="M90" s="18">
         <v>71.357519142034818</v>
       </c>
-      <c r="N90" s="19">
+      <c r="N90" s="18">
         <v>75.542297318214509</v>
       </c>
-      <c r="O90" s="19">
+      <c r="O90" s="18">
         <v>79.815321836394645</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P90" s="18">
         <v>85.715263988372229</v>
       </c>
-      <c r="Q90" s="19">
+      <c r="Q90" s="18">
         <v>88.257307433241579</v>
       </c>
-      <c r="R90" s="19">
+      <c r="R90" s="18">
         <v>91.565242865878801</v>
       </c>
-      <c r="S90" s="19">
+      <c r="S90" s="18">
         <v>93.234789708302614</v>
       </c>
-      <c r="T90" s="19">
+      <c r="T90" s="18">
         <v>100</v>
       </c>
-      <c r="U90" s="19">
+      <c r="U90" s="18">
         <v>101.42949063918904</v>
       </c>
-      <c r="V90" s="19">
+      <c r="V90" s="18">
         <v>109.14649241036483</v>
       </c>
-      <c r="W90" s="19">
+      <c r="W90" s="18">
         <v>114.80620477046209</v>
       </c>
-      <c r="X90" s="9"/>
+      <c r="X90" s="18">
+        <v>120.42248783582696</v>
+      </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -29215,67 +29271,68 @@
       <c r="ES90" s="9"/>
       <c r="ET90" s="9"/>
     </row>
-    <row r="91" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
+    <row r="91" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
         <v>5</v>
@@ -29301,152 +29358,158 @@
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
     </row>
-    <row r="104" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="15">
         <v>2000</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="15">
         <v>2001</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="15">
         <v>2002</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="15">
         <v>2003</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="15">
         <v>2004</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104" s="15">
         <v>2005</v>
       </c>
-      <c r="H104" s="16">
+      <c r="H104" s="15">
         <v>2006</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="15">
         <v>2007</v>
       </c>
-      <c r="J104" s="16">
+      <c r="J104" s="15">
         <v>2008</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="15">
         <v>2009</v>
       </c>
-      <c r="L104" s="16">
+      <c r="L104" s="15">
         <v>2010</v>
       </c>
-      <c r="M104" s="16">
+      <c r="M104" s="15">
         <v>2011</v>
       </c>
-      <c r="N104" s="16">
+      <c r="N104" s="15">
         <v>2012</v>
       </c>
-      <c r="O104" s="16">
+      <c r="O104" s="15">
         <v>2013</v>
       </c>
-      <c r="P104" s="16">
+      <c r="P104" s="15">
         <v>2014</v>
       </c>
-      <c r="Q104" s="16">
+      <c r="Q104" s="15">
         <v>2015</v>
       </c>
-      <c r="R104" s="16">
+      <c r="R104" s="15">
         <v>2016</v>
       </c>
-      <c r="S104" s="16">
+      <c r="S104" s="15">
         <v>2017</v>
       </c>
-      <c r="T104" s="16">
+      <c r="T104" s="15">
         <v>2018</v>
       </c>
-      <c r="U104" s="16">
+      <c r="U104" s="15">
         <v>2019</v>
       </c>
-      <c r="V104" s="16">
+      <c r="V104" s="15">
         <v>2020</v>
       </c>
-      <c r="W104" s="16">
+      <c r="W104" s="15">
         <v>2021</v>
       </c>
+      <c r="X104" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="105" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="19">
+      <c r="B106" s="18">
         <v>28.736099002917477</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C106" s="18">
         <v>28.708287120071287</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="18">
         <v>28.642283028254838</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="18">
         <v>28.857726860426304</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="18">
         <v>28.624851471532686</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="18">
         <v>28.44427075280554</v>
       </c>
-      <c r="H106" s="19">
+      <c r="H106" s="18">
         <v>29.504058356940689</v>
       </c>
-      <c r="I106" s="19">
+      <c r="I106" s="18">
         <v>27.926225304851815</v>
       </c>
-      <c r="J106" s="19">
+      <c r="J106" s="18">
         <v>27.902528596624109</v>
       </c>
-      <c r="K106" s="19">
+      <c r="K106" s="18">
         <v>28.148686947005451</v>
       </c>
-      <c r="L106" s="19">
+      <c r="L106" s="18">
         <v>27.72746037092595</v>
       </c>
-      <c r="M106" s="19">
+      <c r="M106" s="18">
         <v>27.831438471940917</v>
       </c>
-      <c r="N106" s="19">
+      <c r="N106" s="18">
         <v>30.454639821294847</v>
       </c>
-      <c r="O106" s="19">
+      <c r="O106" s="18">
         <v>29.627008275253981</v>
       </c>
-      <c r="P106" s="19">
+      <c r="P106" s="18">
         <v>32.609677073887255</v>
       </c>
-      <c r="Q106" s="19">
+      <c r="Q106" s="18">
         <v>31.316443253606817</v>
       </c>
-      <c r="R106" s="19">
+      <c r="R106" s="18">
         <v>35.815568103513371</v>
       </c>
-      <c r="S106" s="19">
+      <c r="S106" s="18">
         <v>35.25499767802755</v>
       </c>
-      <c r="T106" s="19">
+      <c r="T106" s="18">
         <v>36.050096954877425</v>
       </c>
-      <c r="U106" s="19">
+      <c r="U106" s="18">
         <v>36.488488765442582</v>
       </c>
-      <c r="V106" s="19">
+      <c r="V106" s="18">
         <v>27.729191768356998</v>
       </c>
-      <c r="W106" s="19">
+      <c r="W106" s="18">
         <v>22.265209160137893</v>
       </c>
-      <c r="X106" s="9"/>
+      <c r="X106" s="18">
+        <v>24.88897919907707</v>
+      </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -29574,77 +29637,79 @@
       <c r="ES106" s="9"/>
       <c r="ET106" s="9"/>
     </row>
-    <row r="107" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B107" s="18">
         <v>71.26390099708253</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C107" s="18">
         <v>71.29171287992871</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="18">
         <v>71.357716971745162</v>
       </c>
-      <c r="E107" s="19">
+      <c r="E107" s="18">
         <v>71.142273139573703</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="18">
         <v>71.375148528467321</v>
       </c>
-      <c r="G107" s="19">
+      <c r="G107" s="18">
         <v>71.555729247194463</v>
       </c>
-      <c r="H107" s="19">
+      <c r="H107" s="18">
         <v>70.495941643059311</v>
       </c>
-      <c r="I107" s="19">
+      <c r="I107" s="18">
         <v>72.073774695148188</v>
       </c>
-      <c r="J107" s="19">
+      <c r="J107" s="18">
         <v>72.097471403375891</v>
       </c>
-      <c r="K107" s="19">
+      <c r="K107" s="18">
         <v>71.851313052994541</v>
       </c>
-      <c r="L107" s="19">
+      <c r="L107" s="18">
         <v>72.272539629074046</v>
       </c>
-      <c r="M107" s="19">
+      <c r="M107" s="18">
         <v>72.168561528059072</v>
       </c>
-      <c r="N107" s="19">
+      <c r="N107" s="18">
         <v>69.545360178705153</v>
       </c>
-      <c r="O107" s="19">
+      <c r="O107" s="18">
         <v>70.372991724746029</v>
       </c>
-      <c r="P107" s="19">
+      <c r="P107" s="18">
         <v>67.390322926112745</v>
       </c>
-      <c r="Q107" s="19">
+      <c r="Q107" s="18">
         <v>68.68355674639318</v>
       </c>
-      <c r="R107" s="19">
+      <c r="R107" s="18">
         <v>64.184431896486629</v>
       </c>
-      <c r="S107" s="19">
+      <c r="S107" s="18">
         <v>64.74500232197245</v>
       </c>
-      <c r="T107" s="19">
+      <c r="T107" s="18">
         <v>63.949903045122582</v>
       </c>
-      <c r="U107" s="19">
+      <c r="U107" s="18">
         <v>63.511511234557418</v>
       </c>
-      <c r="V107" s="19">
+      <c r="V107" s="18">
         <v>72.270808231643002</v>
       </c>
-      <c r="W107" s="19">
+      <c r="W107" s="18">
         <v>77.734790839862114</v>
       </c>
-      <c r="X107" s="9"/>
+      <c r="X107" s="18">
+        <v>75.11102080092293</v>
+      </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -29772,8 +29837,8 @@
       <c r="ES107" s="9"/>
       <c r="ET107" s="9"/>
     </row>
-    <row r="108" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+    <row r="108" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -29924,77 +29989,79 @@
       <c r="ES108" s="9"/>
       <c r="ET108" s="9"/>
     </row>
-    <row r="109" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+    <row r="109" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="19">
+      <c r="B109" s="18">
         <v>100</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C109" s="18">
         <v>100</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="18">
         <v>100</v>
       </c>
-      <c r="E109" s="19">
+      <c r="E109" s="18">
         <v>100</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="18">
         <v>100</v>
       </c>
-      <c r="G109" s="19">
+      <c r="G109" s="18">
         <v>100</v>
       </c>
-      <c r="H109" s="19">
+      <c r="H109" s="18">
         <v>100</v>
       </c>
-      <c r="I109" s="19">
+      <c r="I109" s="18">
         <v>100</v>
       </c>
-      <c r="J109" s="19">
+      <c r="J109" s="18">
         <v>100</v>
       </c>
-      <c r="K109" s="19">
+      <c r="K109" s="18">
         <v>100</v>
       </c>
-      <c r="L109" s="19">
+      <c r="L109" s="18">
         <v>100</v>
       </c>
-      <c r="M109" s="19">
+      <c r="M109" s="18">
         <v>100</v>
       </c>
-      <c r="N109" s="19">
+      <c r="N109" s="18">
         <v>100</v>
       </c>
-      <c r="O109" s="19">
+      <c r="O109" s="18">
         <v>100</v>
       </c>
-      <c r="P109" s="19">
+      <c r="P109" s="18">
         <v>100</v>
       </c>
-      <c r="Q109" s="19">
+      <c r="Q109" s="18">
         <v>100</v>
       </c>
-      <c r="R109" s="19">
+      <c r="R109" s="18">
         <v>100</v>
       </c>
-      <c r="S109" s="19">
+      <c r="S109" s="18">
         <v>100</v>
       </c>
-      <c r="T109" s="19">
+      <c r="T109" s="18">
         <v>100</v>
       </c>
-      <c r="U109" s="19">
+      <c r="U109" s="18">
         <v>100</v>
       </c>
-      <c r="V109" s="19">
+      <c r="V109" s="18">
         <v>100</v>
       </c>
-      <c r="W109" s="19">
+      <c r="W109" s="18">
         <v>100</v>
       </c>
-      <c r="X109" s="9"/>
+      <c r="X109" s="18">
+        <v>100</v>
+      </c>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
@@ -30122,38 +30189,39 @@
       <c r="ES109" s="9"/>
       <c r="ET109" s="9"/>
     </row>
-    <row r="110" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
-      <c r="T110" s="13"/>
-      <c r="U110" s="13"/>
-      <c r="V110" s="13"/>
-      <c r="W110" s="13"/>
+    <row r="110" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
     </row>
-    <row r="111" spans="1:150" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+    <row r="111" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+    <row r="112" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -30304,8 +30372,8 @@
       <c r="ES112" s="9"/>
       <c r="ET112" s="9"/>
     </row>
-    <row r="113" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+    <row r="113" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -30456,37 +30524,37 @@
       <c r="ES113" s="9"/>
       <c r="ET113" s="9"/>
     </row>
-    <row r="114" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>5</v>
@@ -30512,152 +30580,158 @@
       <c r="U122" s="5"/>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
     </row>
-    <row r="123" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="15">
         <v>2000</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="15">
         <v>2001</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="15">
         <v>2002</v>
       </c>
-      <c r="E123" s="16">
+      <c r="E123" s="15">
         <v>2003</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="15">
         <v>2004</v>
       </c>
-      <c r="G123" s="16">
+      <c r="G123" s="15">
         <v>2005</v>
       </c>
-      <c r="H123" s="16">
+      <c r="H123" s="15">
         <v>2006</v>
       </c>
-      <c r="I123" s="16">
+      <c r="I123" s="15">
         <v>2007</v>
       </c>
-      <c r="J123" s="16">
+      <c r="J123" s="15">
         <v>2008</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="15">
         <v>2009</v>
       </c>
-      <c r="L123" s="16">
+      <c r="L123" s="15">
         <v>2010</v>
       </c>
-      <c r="M123" s="16">
+      <c r="M123" s="15">
         <v>2011</v>
       </c>
-      <c r="N123" s="16">
+      <c r="N123" s="15">
         <v>2012</v>
       </c>
-      <c r="O123" s="16">
+      <c r="O123" s="15">
         <v>2013</v>
       </c>
-      <c r="P123" s="16">
+      <c r="P123" s="15">
         <v>2014</v>
       </c>
-      <c r="Q123" s="16">
+      <c r="Q123" s="15">
         <v>2015</v>
       </c>
-      <c r="R123" s="16">
+      <c r="R123" s="15">
         <v>2016</v>
       </c>
-      <c r="S123" s="16">
+      <c r="S123" s="15">
         <v>2017</v>
       </c>
-      <c r="T123" s="16">
+      <c r="T123" s="15">
         <v>2018</v>
       </c>
-      <c r="U123" s="16">
+      <c r="U123" s="15">
         <v>2019</v>
       </c>
-      <c r="V123" s="16">
+      <c r="V123" s="15">
         <v>2020</v>
       </c>
-      <c r="W123" s="16">
+      <c r="W123" s="15">
         <v>2021</v>
       </c>
+      <c r="X123" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="124" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="19">
+      <c r="B125" s="18">
         <v>25.289759449144221</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="18">
         <v>24.761676444135162</v>
       </c>
-      <c r="D125" s="19">
+      <c r="D125" s="18">
         <v>24.136446226083063</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="18">
         <v>23.754056253587372</v>
       </c>
-      <c r="F125" s="19">
+      <c r="F125" s="18">
         <v>23.628436851572488</v>
       </c>
-      <c r="G125" s="19">
+      <c r="G125" s="18">
         <v>23.982352298176778</v>
       </c>
-      <c r="H125" s="19">
+      <c r="H125" s="18">
         <v>25.552344820395273</v>
       </c>
-      <c r="I125" s="19">
+      <c r="I125" s="18">
         <v>24.85615185749403</v>
       </c>
-      <c r="J125" s="19">
+      <c r="J125" s="18">
         <v>25.878232862537203</v>
       </c>
-      <c r="K125" s="19">
+      <c r="K125" s="18">
         <v>26.995911511729631</v>
       </c>
-      <c r="L125" s="19">
+      <c r="L125" s="18">
         <v>27.303808075401935</v>
       </c>
-      <c r="M125" s="19">
+      <c r="M125" s="18">
         <v>27.943368902352013</v>
       </c>
-      <c r="N125" s="19">
+      <c r="N125" s="18">
         <v>29.743947147791967</v>
       </c>
-      <c r="O125" s="19">
+      <c r="O125" s="18">
         <v>29.191358755834585</v>
       </c>
-      <c r="P125" s="19">
+      <c r="P125" s="18">
         <v>32.414702981685018</v>
       </c>
-      <c r="Q125" s="19">
+      <c r="Q125" s="18">
         <v>30.900844241497637</v>
       </c>
-      <c r="R125" s="19">
+      <c r="R125" s="18">
         <v>35.108777953963724</v>
       </c>
-      <c r="S125" s="19">
+      <c r="S125" s="18">
         <v>34.729836693418299</v>
       </c>
-      <c r="T125" s="19">
+      <c r="T125" s="18">
         <v>36.050096954877425</v>
       </c>
-      <c r="U125" s="19">
+      <c r="U125" s="18">
         <v>36.624351900098546</v>
       </c>
-      <c r="V125" s="19">
+      <c r="V125" s="18">
         <v>28.26946322492579</v>
       </c>
-      <c r="W125" s="19">
+      <c r="W125" s="18">
         <v>23.634702263150935</v>
       </c>
-      <c r="X125" s="9"/>
+      <c r="X125" s="18">
+        <v>26.864228435582373</v>
+      </c>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
@@ -30785,77 +30859,79 @@
       <c r="ES125" s="9"/>
       <c r="ET125" s="9"/>
     </row>
-    <row r="126" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B126" s="18">
         <v>74.710240550855772</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="18">
         <v>75.238323555864838</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="18">
         <v>75.863553773916934</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="18">
         <v>76.245943746412621</v>
       </c>
-      <c r="F126" s="19">
+      <c r="F126" s="18">
         <v>76.371563148427512</v>
       </c>
-      <c r="G126" s="19">
+      <c r="G126" s="18">
         <v>76.017647701823222</v>
       </c>
-      <c r="H126" s="19">
+      <c r="H126" s="18">
         <v>74.447655179604737</v>
       </c>
-      <c r="I126" s="19">
+      <c r="I126" s="18">
         <v>75.143848142505959</v>
       </c>
-      <c r="J126" s="19">
+      <c r="J126" s="18">
         <v>74.121767137462797</v>
       </c>
-      <c r="K126" s="19">
+      <c r="K126" s="18">
         <v>73.004088488270369</v>
       </c>
-      <c r="L126" s="19">
+      <c r="L126" s="18">
         <v>72.696191924598068</v>
       </c>
-      <c r="M126" s="19">
+      <c r="M126" s="18">
         <v>72.05663109764798</v>
       </c>
-      <c r="N126" s="19">
+      <c r="N126" s="18">
         <v>70.256052852208029</v>
       </c>
-      <c r="O126" s="19">
+      <c r="O126" s="18">
         <v>70.808641244165415</v>
       </c>
-      <c r="P126" s="19">
+      <c r="P126" s="18">
         <v>67.585297018314989</v>
       </c>
-      <c r="Q126" s="19">
+      <c r="Q126" s="18">
         <v>69.099155758502363</v>
       </c>
-      <c r="R126" s="19">
+      <c r="R126" s="18">
         <v>64.891222046036276</v>
       </c>
-      <c r="S126" s="19">
+      <c r="S126" s="18">
         <v>65.270163306581708</v>
       </c>
-      <c r="T126" s="19">
+      <c r="T126" s="18">
         <v>63.949903045122582</v>
       </c>
-      <c r="U126" s="19">
+      <c r="U126" s="18">
         <v>63.375648099901461</v>
       </c>
-      <c r="V126" s="19">
+      <c r="V126" s="18">
         <v>71.730536775074214</v>
       </c>
-      <c r="W126" s="19">
+      <c r="W126" s="18">
         <v>76.365297736849072</v>
       </c>
-      <c r="X126" s="9"/>
+      <c r="X126" s="18">
+        <v>73.135771564417624</v>
+      </c>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -30983,8 +31059,8 @@
       <c r="ES126" s="9"/>
       <c r="ET126" s="9"/>
     </row>
-    <row r="127" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+    <row r="127" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -31135,77 +31211,79 @@
       <c r="ES127" s="9"/>
       <c r="ET127" s="9"/>
     </row>
-    <row r="128" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+    <row r="128" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B128" s="18">
         <v>100</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="18">
         <v>100</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="18">
         <v>100</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128" s="18">
         <v>100</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="18">
         <v>100</v>
       </c>
-      <c r="G128" s="19">
+      <c r="G128" s="18">
         <v>100</v>
       </c>
-      <c r="H128" s="19">
+      <c r="H128" s="18">
         <v>100</v>
       </c>
-      <c r="I128" s="19">
+      <c r="I128" s="18">
         <v>100</v>
       </c>
-      <c r="J128" s="19">
+      <c r="J128" s="18">
         <v>100</v>
       </c>
-      <c r="K128" s="19">
+      <c r="K128" s="18">
         <v>100</v>
       </c>
-      <c r="L128" s="19">
+      <c r="L128" s="18">
         <v>100</v>
       </c>
-      <c r="M128" s="19">
+      <c r="M128" s="18">
         <v>100</v>
       </c>
-      <c r="N128" s="19">
+      <c r="N128" s="18">
         <v>100</v>
       </c>
-      <c r="O128" s="19">
+      <c r="O128" s="18">
         <v>100</v>
       </c>
-      <c r="P128" s="19">
+      <c r="P128" s="18">
         <v>100</v>
       </c>
-      <c r="Q128" s="19">
+      <c r="Q128" s="18">
         <v>100</v>
       </c>
-      <c r="R128" s="19">
+      <c r="R128" s="18">
         <v>100</v>
       </c>
-      <c r="S128" s="19">
+      <c r="S128" s="18">
         <v>100</v>
       </c>
-      <c r="T128" s="19">
+      <c r="T128" s="18">
         <v>100</v>
       </c>
-      <c r="U128" s="19">
+      <c r="U128" s="18">
         <v>100</v>
       </c>
-      <c r="V128" s="19">
+      <c r="V128" s="18">
         <v>100</v>
       </c>
-      <c r="W128" s="19">
+      <c r="W128" s="18">
         <v>100</v>
       </c>
-      <c r="X128" s="9"/>
+      <c r="X128" s="18">
+        <v>100</v>
+      </c>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
@@ -31333,339 +31411,340 @@
       <c r="ES128" s="9"/>
       <c r="ET128" s="9"/>
     </row>
-    <row r="129" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="13"/>
-      <c r="P129" s="13"/>
-      <c r="Q129" s="13"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="13"/>
-      <c r="T129" s="13"/>
-      <c r="U129" s="13"/>
-      <c r="V129" s="13"/>
-      <c r="W129" s="13"/>
+    <row r="129" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
     </row>
-    <row r="130" spans="1:150" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+    <row r="130" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:150" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="20"/>
-      <c r="O131" s="20"/>
-      <c r="P131" s="20"/>
-      <c r="Q131" s="20"/>
-      <c r="R131" s="20"/>
-      <c r="S131" s="20"/>
-      <c r="T131" s="20"/>
-      <c r="U131" s="20"/>
-      <c r="V131" s="20"/>
-      <c r="W131" s="20"/>
-      <c r="X131" s="20"/>
-      <c r="Y131" s="20"/>
-      <c r="Z131" s="20"/>
-      <c r="AA131" s="20"/>
-      <c r="AB131" s="20"/>
-      <c r="AC131" s="20"/>
-      <c r="AD131" s="20"/>
-      <c r="AE131" s="20"/>
-      <c r="AF131" s="20"/>
-      <c r="AG131" s="20"/>
-      <c r="AH131" s="20"/>
-      <c r="AI131" s="20"/>
-      <c r="AJ131" s="20"/>
-      <c r="AK131" s="20"/>
-      <c r="AL131" s="20"/>
-      <c r="AM131" s="20"/>
-      <c r="AN131" s="20"/>
-      <c r="AO131" s="20"/>
-      <c r="AP131" s="20"/>
-      <c r="AQ131" s="20"/>
-      <c r="AR131" s="20"/>
-      <c r="AS131" s="20"/>
-      <c r="AT131" s="20"/>
-      <c r="AU131" s="20"/>
-      <c r="AV131" s="20"/>
-      <c r="AW131" s="20"/>
-      <c r="AX131" s="20"/>
-      <c r="AY131" s="20"/>
-      <c r="AZ131" s="20"/>
-      <c r="BA131" s="20"/>
-      <c r="BB131" s="20"/>
-      <c r="BC131" s="20"/>
-      <c r="BD131" s="20"/>
-      <c r="BE131" s="20"/>
-      <c r="BF131" s="20"/>
-      <c r="BG131" s="20"/>
-      <c r="BH131" s="20"/>
-      <c r="BI131" s="20"/>
-      <c r="BJ131" s="20"/>
-      <c r="BK131" s="20"/>
-      <c r="BL131" s="20"/>
-      <c r="BM131" s="20"/>
-      <c r="BN131" s="20"/>
-      <c r="BO131" s="20"/>
-      <c r="BP131" s="20"/>
-      <c r="BQ131" s="20"/>
-      <c r="BR131" s="20"/>
-      <c r="BS131" s="20"/>
-      <c r="BT131" s="20"/>
-      <c r="BU131" s="20"/>
-      <c r="BV131" s="20"/>
-      <c r="BW131" s="20"/>
-      <c r="BX131" s="20"/>
-      <c r="BY131" s="20"/>
-      <c r="BZ131" s="20"/>
-      <c r="CA131" s="20"/>
-      <c r="CB131" s="20"/>
-      <c r="CC131" s="20"/>
-      <c r="CD131" s="20"/>
-      <c r="CE131" s="20"/>
-      <c r="CF131" s="20"/>
-      <c r="CG131" s="20"/>
-      <c r="CH131" s="20"/>
-      <c r="CI131" s="20"/>
-      <c r="CJ131" s="20"/>
-      <c r="CK131" s="20"/>
-      <c r="CL131" s="20"/>
-      <c r="CM131" s="20"/>
-      <c r="CN131" s="20"/>
-      <c r="CO131" s="20"/>
-      <c r="CP131" s="20"/>
-      <c r="CQ131" s="20"/>
-      <c r="CR131" s="20"/>
-      <c r="CS131" s="20"/>
-      <c r="CT131" s="20"/>
-      <c r="CU131" s="20"/>
-      <c r="CV131" s="20"/>
-      <c r="CW131" s="20"/>
-      <c r="CX131" s="20"/>
-      <c r="CY131" s="20"/>
-      <c r="CZ131" s="20"/>
-      <c r="DA131" s="20"/>
-      <c r="DB131" s="20"/>
-      <c r="DC131" s="20"/>
-      <c r="DD131" s="20"/>
-      <c r="DE131" s="20"/>
-      <c r="DF131" s="20"/>
-      <c r="DG131" s="20"/>
-      <c r="DH131" s="20"/>
-      <c r="DI131" s="20"/>
-      <c r="DJ131" s="20"/>
-      <c r="DK131" s="20"/>
-      <c r="DL131" s="20"/>
-      <c r="DM131" s="20"/>
-      <c r="DN131" s="20"/>
-      <c r="DO131" s="20"/>
-      <c r="DP131" s="20"/>
-      <c r="DQ131" s="20"/>
-      <c r="DR131" s="20"/>
-      <c r="DS131" s="20"/>
-      <c r="DT131" s="20"/>
-      <c r="DU131" s="20"/>
-      <c r="DV131" s="20"/>
-      <c r="DW131" s="20"/>
-      <c r="DX131" s="20"/>
-      <c r="DY131" s="20"/>
-      <c r="DZ131" s="20"/>
-      <c r="EA131" s="20"/>
-      <c r="EB131" s="20"/>
-      <c r="EC131" s="20"/>
-      <c r="ED131" s="20"/>
-      <c r="EE131" s="20"/>
-      <c r="EF131" s="20"/>
-      <c r="EG131" s="20"/>
-      <c r="EH131" s="20"/>
-      <c r="EI131" s="20"/>
-      <c r="EJ131" s="20"/>
-      <c r="EK131" s="20"/>
-      <c r="EL131" s="20"/>
-      <c r="EM131" s="20"/>
-      <c r="EN131" s="20"/>
-      <c r="EO131" s="20"/>
-      <c r="EP131" s="20"/>
-      <c r="EQ131" s="20"/>
-      <c r="ER131" s="20"/>
-      <c r="ES131" s="20"/>
-      <c r="ET131" s="20"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="19"/>
+      <c r="U131" s="19"/>
+      <c r="V131" s="19"/>
+      <c r="W131" s="19"/>
+      <c r="X131" s="19"/>
+      <c r="Y131" s="19"/>
+      <c r="Z131" s="19"/>
+      <c r="AA131" s="19"/>
+      <c r="AB131" s="19"/>
+      <c r="AC131" s="19"/>
+      <c r="AD131" s="19"/>
+      <c r="AE131" s="19"/>
+      <c r="AF131" s="19"/>
+      <c r="AG131" s="19"/>
+      <c r="AH131" s="19"/>
+      <c r="AI131" s="19"/>
+      <c r="AJ131" s="19"/>
+      <c r="AK131" s="19"/>
+      <c r="AL131" s="19"/>
+      <c r="AM131" s="19"/>
+      <c r="AN131" s="19"/>
+      <c r="AO131" s="19"/>
+      <c r="AP131" s="19"/>
+      <c r="AQ131" s="19"/>
+      <c r="AR131" s="19"/>
+      <c r="AS131" s="19"/>
+      <c r="AT131" s="19"/>
+      <c r="AU131" s="19"/>
+      <c r="AV131" s="19"/>
+      <c r="AW131" s="19"/>
+      <c r="AX131" s="19"/>
+      <c r="AY131" s="19"/>
+      <c r="AZ131" s="19"/>
+      <c r="BA131" s="19"/>
+      <c r="BB131" s="19"/>
+      <c r="BC131" s="19"/>
+      <c r="BD131" s="19"/>
+      <c r="BE131" s="19"/>
+      <c r="BF131" s="19"/>
+      <c r="BG131" s="19"/>
+      <c r="BH131" s="19"/>
+      <c r="BI131" s="19"/>
+      <c r="BJ131" s="19"/>
+      <c r="BK131" s="19"/>
+      <c r="BL131" s="19"/>
+      <c r="BM131" s="19"/>
+      <c r="BN131" s="19"/>
+      <c r="BO131" s="19"/>
+      <c r="BP131" s="19"/>
+      <c r="BQ131" s="19"/>
+      <c r="BR131" s="19"/>
+      <c r="BS131" s="19"/>
+      <c r="BT131" s="19"/>
+      <c r="BU131" s="19"/>
+      <c r="BV131" s="19"/>
+      <c r="BW131" s="19"/>
+      <c r="BX131" s="19"/>
+      <c r="BY131" s="19"/>
+      <c r="BZ131" s="19"/>
+      <c r="CA131" s="19"/>
+      <c r="CB131" s="19"/>
+      <c r="CC131" s="19"/>
+      <c r="CD131" s="19"/>
+      <c r="CE131" s="19"/>
+      <c r="CF131" s="19"/>
+      <c r="CG131" s="19"/>
+      <c r="CH131" s="19"/>
+      <c r="CI131" s="19"/>
+      <c r="CJ131" s="19"/>
+      <c r="CK131" s="19"/>
+      <c r="CL131" s="19"/>
+      <c r="CM131" s="19"/>
+      <c r="CN131" s="19"/>
+      <c r="CO131" s="19"/>
+      <c r="CP131" s="19"/>
+      <c r="CQ131" s="19"/>
+      <c r="CR131" s="19"/>
+      <c r="CS131" s="19"/>
+      <c r="CT131" s="19"/>
+      <c r="CU131" s="19"/>
+      <c r="CV131" s="19"/>
+      <c r="CW131" s="19"/>
+      <c r="CX131" s="19"/>
+      <c r="CY131" s="19"/>
+      <c r="CZ131" s="19"/>
+      <c r="DA131" s="19"/>
+      <c r="DB131" s="19"/>
+      <c r="DC131" s="19"/>
+      <c r="DD131" s="19"/>
+      <c r="DE131" s="19"/>
+      <c r="DF131" s="19"/>
+      <c r="DG131" s="19"/>
+      <c r="DH131" s="19"/>
+      <c r="DI131" s="19"/>
+      <c r="DJ131" s="19"/>
+      <c r="DK131" s="19"/>
+      <c r="DL131" s="19"/>
+      <c r="DM131" s="19"/>
+      <c r="DN131" s="19"/>
+      <c r="DO131" s="19"/>
+      <c r="DP131" s="19"/>
+      <c r="DQ131" s="19"/>
+      <c r="DR131" s="19"/>
+      <c r="DS131" s="19"/>
+      <c r="DT131" s="19"/>
+      <c r="DU131" s="19"/>
+      <c r="DV131" s="19"/>
+      <c r="DW131" s="19"/>
+      <c r="DX131" s="19"/>
+      <c r="DY131" s="19"/>
+      <c r="DZ131" s="19"/>
+      <c r="EA131" s="19"/>
+      <c r="EB131" s="19"/>
+      <c r="EC131" s="19"/>
+      <c r="ED131" s="19"/>
+      <c r="EE131" s="19"/>
+      <c r="EF131" s="19"/>
+      <c r="EG131" s="19"/>
+      <c r="EH131" s="19"/>
+      <c r="EI131" s="19"/>
+      <c r="EJ131" s="19"/>
+      <c r="EK131" s="19"/>
+      <c r="EL131" s="19"/>
+      <c r="EM131" s="19"/>
+      <c r="EN131" s="19"/>
+      <c r="EO131" s="19"/>
+      <c r="EP131" s="19"/>
+      <c r="EQ131" s="19"/>
+      <c r="ER131" s="19"/>
+      <c r="ES131" s="19"/>
+      <c r="ET131" s="19"/>
     </row>
-    <row r="132" spans="1:150" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="20"/>
-      <c r="O132" s="20"/>
-      <c r="P132" s="20"/>
-      <c r="Q132" s="20"/>
-      <c r="R132" s="20"/>
-      <c r="S132" s="20"/>
-      <c r="T132" s="20"/>
-      <c r="U132" s="20"/>
-      <c r="V132" s="20"/>
-      <c r="W132" s="20"/>
-      <c r="X132" s="20"/>
-      <c r="Y132" s="20"/>
-      <c r="Z132" s="20"/>
-      <c r="AA132" s="20"/>
-      <c r="AB132" s="20"/>
-      <c r="AC132" s="20"/>
-      <c r="AD132" s="20"/>
-      <c r="AE132" s="20"/>
-      <c r="AF132" s="20"/>
-      <c r="AG132" s="20"/>
-      <c r="AH132" s="20"/>
-      <c r="AI132" s="20"/>
-      <c r="AJ132" s="20"/>
-      <c r="AK132" s="20"/>
-      <c r="AL132" s="20"/>
-      <c r="AM132" s="20"/>
-      <c r="AN132" s="20"/>
-      <c r="AO132" s="20"/>
-      <c r="AP132" s="20"/>
-      <c r="AQ132" s="20"/>
-      <c r="AR132" s="20"/>
-      <c r="AS132" s="20"/>
-      <c r="AT132" s="20"/>
-      <c r="AU132" s="20"/>
-      <c r="AV132" s="20"/>
-      <c r="AW132" s="20"/>
-      <c r="AX132" s="20"/>
-      <c r="AY132" s="20"/>
-      <c r="AZ132" s="20"/>
-      <c r="BA132" s="20"/>
-      <c r="BB132" s="20"/>
-      <c r="BC132" s="20"/>
-      <c r="BD132" s="20"/>
-      <c r="BE132" s="20"/>
-      <c r="BF132" s="20"/>
-      <c r="BG132" s="20"/>
-      <c r="BH132" s="20"/>
-      <c r="BI132" s="20"/>
-      <c r="BJ132" s="20"/>
-      <c r="BK132" s="20"/>
-      <c r="BL132" s="20"/>
-      <c r="BM132" s="20"/>
-      <c r="BN132" s="20"/>
-      <c r="BO132" s="20"/>
-      <c r="BP132" s="20"/>
-      <c r="BQ132" s="20"/>
-      <c r="BR132" s="20"/>
-      <c r="BS132" s="20"/>
-      <c r="BT132" s="20"/>
-      <c r="BU132" s="20"/>
-      <c r="BV132" s="20"/>
-      <c r="BW132" s="20"/>
-      <c r="BX132" s="20"/>
-      <c r="BY132" s="20"/>
-      <c r="BZ132" s="20"/>
-      <c r="CA132" s="20"/>
-      <c r="CB132" s="20"/>
-      <c r="CC132" s="20"/>
-      <c r="CD132" s="20"/>
-      <c r="CE132" s="20"/>
-      <c r="CF132" s="20"/>
-      <c r="CG132" s="20"/>
-      <c r="CH132" s="20"/>
-      <c r="CI132" s="20"/>
-      <c r="CJ132" s="20"/>
-      <c r="CK132" s="20"/>
-      <c r="CL132" s="20"/>
-      <c r="CM132" s="20"/>
-      <c r="CN132" s="20"/>
-      <c r="CO132" s="20"/>
-      <c r="CP132" s="20"/>
-      <c r="CQ132" s="20"/>
-      <c r="CR132" s="20"/>
-      <c r="CS132" s="20"/>
-      <c r="CT132" s="20"/>
-      <c r="CU132" s="20"/>
-      <c r="CV132" s="20"/>
-      <c r="CW132" s="20"/>
-      <c r="CX132" s="20"/>
-      <c r="CY132" s="20"/>
-      <c r="CZ132" s="20"/>
-      <c r="DA132" s="20"/>
-      <c r="DB132" s="20"/>
-      <c r="DC132" s="20"/>
-      <c r="DD132" s="20"/>
-      <c r="DE132" s="20"/>
-      <c r="DF132" s="20"/>
-      <c r="DG132" s="20"/>
-      <c r="DH132" s="20"/>
-      <c r="DI132" s="20"/>
-      <c r="DJ132" s="20"/>
-      <c r="DK132" s="20"/>
-      <c r="DL132" s="20"/>
-      <c r="DM132" s="20"/>
-      <c r="DN132" s="20"/>
-      <c r="DO132" s="20"/>
-      <c r="DP132" s="20"/>
-      <c r="DQ132" s="20"/>
-      <c r="DR132" s="20"/>
-      <c r="DS132" s="20"/>
-      <c r="DT132" s="20"/>
-      <c r="DU132" s="20"/>
-      <c r="DV132" s="20"/>
-      <c r="DW132" s="20"/>
-      <c r="DX132" s="20"/>
-      <c r="DY132" s="20"/>
-      <c r="DZ132" s="20"/>
-      <c r="EA132" s="20"/>
-      <c r="EB132" s="20"/>
-      <c r="EC132" s="20"/>
-      <c r="ED132" s="20"/>
-      <c r="EE132" s="20"/>
-      <c r="EF132" s="20"/>
-      <c r="EG132" s="20"/>
-      <c r="EH132" s="20"/>
-      <c r="EI132" s="20"/>
-      <c r="EJ132" s="20"/>
-      <c r="EK132" s="20"/>
-      <c r="EL132" s="20"/>
-      <c r="EM132" s="20"/>
-      <c r="EN132" s="20"/>
-      <c r="EO132" s="20"/>
-      <c r="EP132" s="20"/>
-      <c r="EQ132" s="20"/>
-      <c r="ER132" s="20"/>
-      <c r="ES132" s="20"/>
-      <c r="ET132" s="20"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="19"/>
+      <c r="V132" s="19"/>
+      <c r="W132" s="19"/>
+      <c r="X132" s="19"/>
+      <c r="Y132" s="19"/>
+      <c r="Z132" s="19"/>
+      <c r="AA132" s="19"/>
+      <c r="AB132" s="19"/>
+      <c r="AC132" s="19"/>
+      <c r="AD132" s="19"/>
+      <c r="AE132" s="19"/>
+      <c r="AF132" s="19"/>
+      <c r="AG132" s="19"/>
+      <c r="AH132" s="19"/>
+      <c r="AI132" s="19"/>
+      <c r="AJ132" s="19"/>
+      <c r="AK132" s="19"/>
+      <c r="AL132" s="19"/>
+      <c r="AM132" s="19"/>
+      <c r="AN132" s="19"/>
+      <c r="AO132" s="19"/>
+      <c r="AP132" s="19"/>
+      <c r="AQ132" s="19"/>
+      <c r="AR132" s="19"/>
+      <c r="AS132" s="19"/>
+      <c r="AT132" s="19"/>
+      <c r="AU132" s="19"/>
+      <c r="AV132" s="19"/>
+      <c r="AW132" s="19"/>
+      <c r="AX132" s="19"/>
+      <c r="AY132" s="19"/>
+      <c r="AZ132" s="19"/>
+      <c r="BA132" s="19"/>
+      <c r="BB132" s="19"/>
+      <c r="BC132" s="19"/>
+      <c r="BD132" s="19"/>
+      <c r="BE132" s="19"/>
+      <c r="BF132" s="19"/>
+      <c r="BG132" s="19"/>
+      <c r="BH132" s="19"/>
+      <c r="BI132" s="19"/>
+      <c r="BJ132" s="19"/>
+      <c r="BK132" s="19"/>
+      <c r="BL132" s="19"/>
+      <c r="BM132" s="19"/>
+      <c r="BN132" s="19"/>
+      <c r="BO132" s="19"/>
+      <c r="BP132" s="19"/>
+      <c r="BQ132" s="19"/>
+      <c r="BR132" s="19"/>
+      <c r="BS132" s="19"/>
+      <c r="BT132" s="19"/>
+      <c r="BU132" s="19"/>
+      <c r="BV132" s="19"/>
+      <c r="BW132" s="19"/>
+      <c r="BX132" s="19"/>
+      <c r="BY132" s="19"/>
+      <c r="BZ132" s="19"/>
+      <c r="CA132" s="19"/>
+      <c r="CB132" s="19"/>
+      <c r="CC132" s="19"/>
+      <c r="CD132" s="19"/>
+      <c r="CE132" s="19"/>
+      <c r="CF132" s="19"/>
+      <c r="CG132" s="19"/>
+      <c r="CH132" s="19"/>
+      <c r="CI132" s="19"/>
+      <c r="CJ132" s="19"/>
+      <c r="CK132" s="19"/>
+      <c r="CL132" s="19"/>
+      <c r="CM132" s="19"/>
+      <c r="CN132" s="19"/>
+      <c r="CO132" s="19"/>
+      <c r="CP132" s="19"/>
+      <c r="CQ132" s="19"/>
+      <c r="CR132" s="19"/>
+      <c r="CS132" s="19"/>
+      <c r="CT132" s="19"/>
+      <c r="CU132" s="19"/>
+      <c r="CV132" s="19"/>
+      <c r="CW132" s="19"/>
+      <c r="CX132" s="19"/>
+      <c r="CY132" s="19"/>
+      <c r="CZ132" s="19"/>
+      <c r="DA132" s="19"/>
+      <c r="DB132" s="19"/>
+      <c r="DC132" s="19"/>
+      <c r="DD132" s="19"/>
+      <c r="DE132" s="19"/>
+      <c r="DF132" s="19"/>
+      <c r="DG132" s="19"/>
+      <c r="DH132" s="19"/>
+      <c r="DI132" s="19"/>
+      <c r="DJ132" s="19"/>
+      <c r="DK132" s="19"/>
+      <c r="DL132" s="19"/>
+      <c r="DM132" s="19"/>
+      <c r="DN132" s="19"/>
+      <c r="DO132" s="19"/>
+      <c r="DP132" s="19"/>
+      <c r="DQ132" s="19"/>
+      <c r="DR132" s="19"/>
+      <c r="DS132" s="19"/>
+      <c r="DT132" s="19"/>
+      <c r="DU132" s="19"/>
+      <c r="DV132" s="19"/>
+      <c r="DW132" s="19"/>
+      <c r="DX132" s="19"/>
+      <c r="DY132" s="19"/>
+      <c r="DZ132" s="19"/>
+      <c r="EA132" s="19"/>
+      <c r="EB132" s="19"/>
+      <c r="EC132" s="19"/>
+      <c r="ED132" s="19"/>
+      <c r="EE132" s="19"/>
+      <c r="EF132" s="19"/>
+      <c r="EG132" s="19"/>
+      <c r="EH132" s="19"/>
+      <c r="EI132" s="19"/>
+      <c r="EJ132" s="19"/>
+      <c r="EK132" s="19"/>
+      <c r="EL132" s="19"/>
+      <c r="EM132" s="19"/>
+      <c r="EN132" s="19"/>
+      <c r="EO132" s="19"/>
+      <c r="EP132" s="19"/>
+      <c r="EQ132" s="19"/>
+      <c r="ER132" s="19"/>
+      <c r="ES132" s="19"/>
+      <c r="ET132" s="19"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -31673,9 +31752,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="22" man="1"/>
-    <brk id="76" max="22" man="1"/>
-    <brk id="94" max="22" man="1"/>
+    <brk id="38" max="23" man="1"/>
+    <brk id="76" max="23" man="1"/>
+    <brk id="94" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FBDF4-AF82-4E77-ABD3-B2B60707A940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF55E3-86F9-409A-A3D5-D54E1B986168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="3495" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -606,13 +606,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23557,7 +23557,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
+      <selection pane="topRight" activeCell="V72" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23579,7 +23579,7 @@
     </row>
     <row r="3" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:150" x14ac:dyDescent="0.2">
@@ -23589,7 +23589,7 @@
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:150" x14ac:dyDescent="0.2">
@@ -23770,10 +23770,10 @@
         <v>70158.52409182163</v>
       </c>
       <c r="W12" s="8">
-        <v>63510.152119810766</v>
+        <v>63450.080943426554</v>
       </c>
       <c r="X12" s="8">
-        <v>98148.486137519794</v>
+        <v>99473.601760341291</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23970,10 +23970,10 @@
         <v>182854.70715526654</v>
       </c>
       <c r="W13" s="8">
-        <v>221733.75312728208</v>
+        <v>221736.93693504552</v>
       </c>
       <c r="X13" s="8">
-        <v>296196.67905575305</v>
+        <v>295599.63207167597</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24322,10 +24322,10 @@
         <v>253013.23124708817</v>
       </c>
       <c r="W15" s="11">
-        <v>285243.90524709283</v>
+        <v>285187.01787847211</v>
       </c>
       <c r="X15" s="11">
-        <v>394345.16519327287</v>
+        <v>395073.23383201729</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24801,7 +24801,7 @@
     </row>
     <row r="22" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:150" x14ac:dyDescent="0.2">
@@ -24811,7 +24811,7 @@
     </row>
     <row r="25" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:150" x14ac:dyDescent="0.2">
@@ -24992,10 +24992,10 @@
         <v>65531.636227642804</v>
       </c>
       <c r="W31" s="8">
-        <v>58722.041952108862</v>
+        <v>58666.455905289215</v>
       </c>
       <c r="X31" s="8">
-        <v>87971.763335948854</v>
+        <v>89154.502068099377</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -25192,10 +25192,10 @@
         <v>166279.04834829271</v>
       </c>
       <c r="W32" s="8">
-        <v>189734.83005876857</v>
+        <v>189737.55139584607</v>
       </c>
       <c r="X32" s="8">
-        <v>239496.28044910158</v>
+        <v>239025.75271750987</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -25544,10 +25544,10 @@
         <v>231810.68457593551</v>
       </c>
       <c r="W34" s="11">
-        <v>248456.87201087741</v>
+        <v>248404.00730113528</v>
       </c>
       <c r="X34" s="11">
-        <v>327468.04378505045</v>
+        <v>328180.25478560926</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -26023,7 +26023,7 @@
     </row>
     <row r="41" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:150" x14ac:dyDescent="0.2">
@@ -26033,7 +26033,7 @@
     </row>
     <row r="44" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:150" x14ac:dyDescent="0.2">
@@ -26209,10 +26209,10 @@
         <v>-55.468801901772125</v>
       </c>
       <c r="V50" s="18">
-        <v>-9.476214128036176</v>
+        <v>-9.5618361920145958</v>
       </c>
       <c r="W50" s="18">
-        <v>54.539837902394595</v>
+        <v>56.774586070322073</v>
       </c>
       <c r="X50" s="18"/>
       <c r="Y50" s="9"/>
@@ -26402,10 +26402,10 @@
         <v>-33.320319508998864</v>
       </c>
       <c r="V51" s="18">
-        <v>21.262261484470486</v>
+        <v>21.264002652533904</v>
       </c>
       <c r="W51" s="18">
-        <v>33.582133923348579</v>
+        <v>33.310956738915991</v>
       </c>
       <c r="X51" s="18"/>
       <c r="Y51" s="9"/>
@@ -26742,10 +26742,10 @@
         <v>-41.401966018601968</v>
       </c>
       <c r="V53" s="18">
-        <v>12.738730635208853</v>
+        <v>12.716246685124389</v>
       </c>
       <c r="W53" s="18">
-        <v>38.248410549445708</v>
+        <v>38.531282654798616</v>
       </c>
       <c r="X53" s="18"/>
       <c r="Y53" s="9"/>
@@ -27207,7 +27207,7 @@
     </row>
     <row r="60" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:145" x14ac:dyDescent="0.2">
@@ -27217,7 +27217,7 @@
     </row>
     <row r="63" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:145" x14ac:dyDescent="0.2">
@@ -27393,10 +27393,10 @@
         <v>-57.967509806133378</v>
       </c>
       <c r="V69" s="18">
-        <v>-10.391308179577379</v>
+        <v>-10.476131403930509</v>
       </c>
       <c r="W69" s="18">
-        <v>49.810463688736832</v>
+        <v>51.968447202656819</v>
       </c>
       <c r="X69" s="18"/>
       <c r="Y69" s="9"/>
@@ -27586,10 +27586,10 @@
         <v>-38.366167546711871</v>
       </c>
       <c r="V70" s="18">
-        <v>14.106276132483472</v>
+        <v>14.107912741006629</v>
       </c>
       <c r="W70" s="18">
-        <v>26.226840045615177</v>
+        <v>25.977040896261343</v>
       </c>
       <c r="X70" s="18"/>
       <c r="Y70" s="9"/>
@@ -27926,10 +27926,10 @@
         <v>-45.54503211294513</v>
       </c>
       <c r="V72" s="18">
-        <v>7.180940544390225</v>
+        <v>7.1581354222540909</v>
       </c>
       <c r="W72" s="18">
-        <v>31.80075927652905</v>
+        <v>32.115523558266432</v>
       </c>
       <c r="X72" s="18"/>
       <c r="Y72" s="9"/>
@@ -28396,7 +28396,7 @@
     </row>
     <row r="78" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:150" x14ac:dyDescent="0.2">
@@ -28406,7 +28406,7 @@
     </row>
     <row r="81" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:150" x14ac:dyDescent="0.2">
@@ -28587,10 +28587,10 @@
         <v>107.06054072586562</v>
       </c>
       <c r="W87" s="18">
-        <v>108.15385502365002</v>
+        <v>108.15393560821195</v>
       </c>
       <c r="X87" s="18">
-        <v>111.56816962132248</v>
+        <v>111.57440112711281</v>
       </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -28787,10 +28787,10 @@
         <v>109.96857930787168</v>
       </c>
       <c r="W88" s="18">
-        <v>116.86507588438147</v>
+        <v>116.86507773700512</v>
       </c>
       <c r="X88" s="18">
-        <v>123.67485561793583</v>
+        <v>123.66852889739765</v>
       </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -29139,10 +29139,10 @@
         <v>109.14649241036483</v>
       </c>
       <c r="W90" s="18">
-        <v>114.80620477046209</v>
+        <v>114.80773638757988</v>
       </c>
       <c r="X90" s="18">
-        <v>120.42248783582696</v>
+        <v>120.38299930326622</v>
       </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -29314,7 +29314,7 @@
     </row>
     <row r="97" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:150" x14ac:dyDescent="0.2">
@@ -29324,7 +29324,7 @@
     </row>
     <row r="100" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:150" x14ac:dyDescent="0.2">
@@ -29505,10 +29505,10 @@
         <v>27.729191768356998</v>
       </c>
       <c r="W106" s="18">
-        <v>22.265209160137893</v>
+        <v>22.248586704765362</v>
       </c>
       <c r="X106" s="18">
-        <v>24.88897919907707</v>
+        <v>25.178522168028433</v>
       </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -29705,10 +29705,10 @@
         <v>72.270808231643002</v>
       </c>
       <c r="W107" s="18">
-        <v>77.734790839862114</v>
+        <v>77.751413295234627</v>
       </c>
       <c r="X107" s="18">
-        <v>75.11102080092293</v>
+        <v>74.821477831971563</v>
       </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -30536,7 +30536,7 @@
     </row>
     <row r="116" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:150" x14ac:dyDescent="0.2">
@@ -30546,7 +30546,7 @@
     </row>
     <row r="119" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:150" x14ac:dyDescent="0.2">
@@ -30727,10 +30727,10 @@
         <v>28.26946322492579</v>
       </c>
       <c r="W125" s="18">
-        <v>23.634702263150935</v>
+        <v>23.617354865845229</v>
       </c>
       <c r="X125" s="18">
-        <v>26.864228435582373</v>
+        <v>27.166321181126957</v>
       </c>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
@@ -30927,10 +30927,10 @@
         <v>71.730536775074214</v>
       </c>
       <c r="W126" s="18">
-        <v>76.365297736849072</v>
+        <v>76.382645134154771</v>
       </c>
       <c r="X126" s="18">
-        <v>73.135771564417624</v>
+        <v>72.83367881887304</v>
       </c>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>

--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF55E3-86F9-409A-A3D5-D54E1B986168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3DF6E4-274E-4049-8777-8E6B0A729796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$X$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$Y$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -606,13 +606,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23557,14 +23560,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V72" sqref="V1:X1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="24" width="11.21875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="11.21875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:150" x14ac:dyDescent="0.2">
@@ -23579,7 +23582,7 @@
     </row>
     <row r="3" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:150" x14ac:dyDescent="0.2">
@@ -23589,7 +23592,7 @@
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:150" x14ac:dyDescent="0.2">
@@ -23624,6 +23627,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23697,6 +23701,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23775,7 +23782,9 @@
       <c r="X12" s="8">
         <v>99473.601760341291</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>140989.80945064378</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23975,7 +23984,9 @@
       <c r="X13" s="8">
         <v>295599.63207167597</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>368491.63596874906</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24327,7 +24338,9 @@
       <c r="X15" s="11">
         <v>395073.23383201729</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="11">
+        <v>509481.44541939284</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24479,6 +24492,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -24662,7 +24676,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="14"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -24801,7 +24815,7 @@
     </row>
     <row r="22" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:150" x14ac:dyDescent="0.2">
@@ -24811,7 +24825,7 @@
     </row>
     <row r="25" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:150" x14ac:dyDescent="0.2">
@@ -24846,6 +24860,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -24919,6 +24934,9 @@
       </c>
       <c r="X29" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y29" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="30" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24997,7 +25015,9 @@
       <c r="X31" s="8">
         <v>89154.502068099377</v>
       </c>
-      <c r="Y31" s="9"/>
+      <c r="Y31" s="8">
+        <v>121154.09069758104</v>
+      </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -25197,7 +25217,9 @@
       <c r="X32" s="8">
         <v>239025.75271750987</v>
       </c>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="8">
+        <v>283950.57575135911</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -25549,7 +25571,9 @@
       <c r="X34" s="11">
         <v>328180.25478560926</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="11">
+        <v>405104.66644894017</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25701,6 +25725,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
     </row>
     <row r="36" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -26023,7 +26048,7 @@
     </row>
     <row r="41" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:150" x14ac:dyDescent="0.2">
@@ -26033,7 +26058,7 @@
     </row>
     <row r="44" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:150" x14ac:dyDescent="0.2">
@@ -26068,6 +26093,7 @@
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
     </row>
     <row r="48" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -26139,7 +26165,10 @@
       <c r="W48" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="X48" s="17"/>
+      <c r="X48" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="17"/>
     </row>
     <row r="49" spans="1:145" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -26214,8 +26243,10 @@
       <c r="W50" s="18">
         <v>56.774586070322073</v>
       </c>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="9"/>
+      <c r="X50" s="18">
+        <v>41.735904758255572</v>
+      </c>
+      <c r="Y50" s="18"/>
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
@@ -26407,8 +26438,10 @@
       <c r="W51" s="18">
         <v>33.310956738915991</v>
       </c>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="9"/>
+      <c r="X51" s="18">
+        <v>24.659030657859034</v>
+      </c>
+      <c r="Y51" s="18"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
@@ -26747,8 +26780,10 @@
       <c r="W53" s="18">
         <v>38.531282654798616</v>
       </c>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="9"/>
+      <c r="X53" s="18">
+        <v>28.958735188833685</v>
+      </c>
+      <c r="Y53" s="18"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
@@ -26895,6 +26930,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
     </row>
     <row r="55" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -27207,7 +27243,7 @@
     </row>
     <row r="60" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:145" x14ac:dyDescent="0.2">
@@ -27217,7 +27253,7 @@
     </row>
     <row r="63" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:145" x14ac:dyDescent="0.2">
@@ -27252,6 +27288,7 @@
       <c r="V66" s="16"/>
       <c r="W66" s="16"/>
       <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
     </row>
     <row r="67" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -27323,7 +27360,10 @@
       <c r="W67" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="X67" s="6"/>
+      <c r="X67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="6"/>
     </row>
     <row r="68" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -27398,8 +27438,10 @@
       <c r="W69" s="18">
         <v>51.968447202656819</v>
       </c>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="9"/>
+      <c r="X69" s="18">
+        <v>35.892285736775534</v>
+      </c>
+      <c r="Y69" s="18"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -27591,8 +27633,10 @@
       <c r="W70" s="18">
         <v>25.977040896261343</v>
       </c>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="9"/>
+      <c r="X70" s="18">
+        <v>18.794971890306385</v>
+      </c>
+      <c r="Y70" s="18"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
@@ -27931,8 +27975,10 @@
       <c r="W72" s="18">
         <v>32.115523558266432</v>
       </c>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="9"/>
+      <c r="X72" s="18">
+        <v>23.439683083183496</v>
+      </c>
+      <c r="Y72" s="18"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -28079,6 +28125,7 @@
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
     </row>
     <row r="74" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -28396,7 +28443,7 @@
     </row>
     <row r="78" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:150" x14ac:dyDescent="0.2">
@@ -28406,7 +28453,7 @@
     </row>
     <row r="81" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:150" x14ac:dyDescent="0.2">
@@ -28441,6 +28488,7 @@
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
     </row>
     <row r="85" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -28514,6 +28562,9 @@
       </c>
       <c r="X85" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y85" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="86" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28592,7 +28643,9 @@
       <c r="X87" s="18">
         <v>111.57440112711281</v>
       </c>
-      <c r="Y87" s="9"/>
+      <c r="Y87" s="18">
+        <v>116.37230624145883</v>
+      </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -28792,7 +28845,9 @@
       <c r="X88" s="18">
         <v>123.66852889739765</v>
       </c>
-      <c r="Y88" s="9"/>
+      <c r="Y88" s="18">
+        <v>129.77316034443197</v>
+      </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -29144,7 +29199,9 @@
       <c r="X90" s="18">
         <v>120.38299930326622</v>
       </c>
-      <c r="Y90" s="9"/>
+      <c r="Y90" s="18">
+        <v>125.76538549540712</v>
+      </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -29296,6 +29353,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -29314,7 +29372,7 @@
     </row>
     <row r="97" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:150" x14ac:dyDescent="0.2">
@@ -29324,7 +29382,7 @@
     </row>
     <row r="100" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:150" x14ac:dyDescent="0.2">
@@ -29359,6 +29417,7 @@
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
     </row>
     <row r="104" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -29432,6 +29491,9 @@
       </c>
       <c r="X104" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y104" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="105" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29510,7 +29572,9 @@
       <c r="X106" s="18">
         <v>25.178522168028433</v>
       </c>
-      <c r="Y106" s="9"/>
+      <c r="Y106" s="18">
+        <v>27.673198056228397</v>
+      </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -29710,7 +29774,9 @@
       <c r="X107" s="18">
         <v>74.821477831971563</v>
       </c>
-      <c r="Y107" s="9"/>
+      <c r="Y107" s="18">
+        <v>72.326801943771599</v>
+      </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -30062,7 +30128,9 @@
       <c r="X109" s="18">
         <v>100</v>
       </c>
-      <c r="Y109" s="9"/>
+      <c r="Y109" s="18">
+        <v>100</v>
+      </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
@@ -30214,6 +30282,7 @@
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
     </row>
     <row r="111" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -30536,7 +30605,7 @@
     </row>
     <row r="116" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:150" x14ac:dyDescent="0.2">
@@ -30546,7 +30615,7 @@
     </row>
     <row r="119" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:150" x14ac:dyDescent="0.2">
@@ -30581,6 +30650,7 @@
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -30654,6 +30724,9 @@
       </c>
       <c r="X123" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y123" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="124" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30732,7 +30805,9 @@
       <c r="X125" s="18">
         <v>27.166321181126957</v>
       </c>
-      <c r="Y125" s="9"/>
+      <c r="Y125" s="18">
+        <v>29.906861295771179</v>
+      </c>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
@@ -30932,7 +31007,9 @@
       <c r="X126" s="18">
         <v>72.83367881887304</v>
       </c>
-      <c r="Y126" s="9"/>
+      <c r="Y126" s="18">
+        <v>70.093138704228807</v>
+      </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
@@ -31284,7 +31361,9 @@
       <c r="X128" s="18">
         <v>100</v>
       </c>
-      <c r="Y128" s="9"/>
+      <c r="Y128" s="18">
+        <v>100</v>
+      </c>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
@@ -31436,6 +31515,7 @@
       <c r="V129" s="12"/>
       <c r="W129" s="12"/>
       <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
     </row>
     <row r="130" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -31752,9 +31832,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="23" man="1"/>
-    <brk id="76" max="23" man="1"/>
-    <brk id="94" max="23" man="1"/>
+    <brk id="38" max="24" man="1"/>
+    <brk id="76" max="24" man="1"/>
+    <brk id="94" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3DF6E4-274E-4049-8777-8E6B0A729796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27467A99-DD49-4297-9989-E6EB68749839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -609,13 +609,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23563,44 +23563,44 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.21875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
+    <col min="2" max="25" width="11.1796875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -23629,7 +23629,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -23706,10 +23706,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23780,10 +23780,10 @@
         <v>63450.080943426554</v>
       </c>
       <c r="X12" s="8">
-        <v>99473.601760341291</v>
+        <v>100398.50378154537</v>
       </c>
       <c r="Y12" s="8">
-        <v>140989.80945064378</v>
+        <v>142230.27261998469</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23911,7 +23911,7 @@
       <c r="ES12" s="9"/>
       <c r="ET12" s="9"/>
     </row>
-    <row r="13" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23982,10 +23982,10 @@
         <v>221736.93693504552</v>
       </c>
       <c r="X13" s="8">
-        <v>295599.63207167597</v>
+        <v>295745.39378360257</v>
       </c>
       <c r="Y13" s="8">
-        <v>368491.63596874906</v>
+        <v>368915.35459816619</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -24113,7 +24113,7 @@
       <c r="ES13" s="9"/>
       <c r="ET13" s="9"/>
     </row>
-    <row r="14" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -24265,7 +24265,7 @@
       <c r="ES14" s="9"/>
       <c r="ET14" s="9"/>
     </row>
-    <row r="15" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -24336,10 +24336,10 @@
         <v>285187.01787847211</v>
       </c>
       <c r="X15" s="11">
-        <v>395073.23383201729</v>
+        <v>396143.89756514796</v>
       </c>
       <c r="Y15" s="11">
-        <v>509481.44541939284</v>
+        <v>511145.62721815088</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24467,7 +24467,7 @@
       <c r="ES15" s="9"/>
       <c r="ET15" s="9"/>
     </row>
-    <row r="16" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -24494,12 +24494,12 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -24651,7 +24651,7 @@
       <c r="ES18" s="9"/>
       <c r="ET18" s="9"/>
     </row>
-    <row r="19" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -24803,37 +24803,37 @@
       <c r="ES19" s="9"/>
       <c r="ET19" s="9"/>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -24862,7 +24862,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -24939,10 +24939,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -25013,10 +25013,10 @@
         <v>58666.455905289215</v>
       </c>
       <c r="X31" s="8">
-        <v>89154.502068099377</v>
+        <v>89979.966104372928</v>
       </c>
       <c r="Y31" s="8">
-        <v>121154.09069758104</v>
+        <v>122213.50119476771</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -25144,7 +25144,7 @@
       <c r="ES31" s="9"/>
       <c r="ET31" s="9"/>
     </row>
-    <row r="32" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -25215,10 +25215,10 @@
         <v>189737.55139584607</v>
       </c>
       <c r="X32" s="8">
-        <v>239025.75271750987</v>
+        <v>239143.96042400115</v>
       </c>
       <c r="Y32" s="8">
-        <v>283950.57575135911</v>
+        <v>283204.76585346239</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -25346,7 +25346,7 @@
       <c r="ES32" s="9"/>
       <c r="ET32" s="9"/>
     </row>
-    <row r="33" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -25498,7 +25498,7 @@
       <c r="ES33" s="9"/>
       <c r="ET33" s="9"/>
     </row>
-    <row r="34" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -25569,10 +25569,10 @@
         <v>248404.00730113528</v>
       </c>
       <c r="X34" s="11">
-        <v>328180.25478560926</v>
+        <v>329123.92652837408</v>
       </c>
       <c r="Y34" s="11">
-        <v>405104.66644894017</v>
+        <v>405418.2670482301</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25700,7 +25700,7 @@
       <c r="ES34" s="9"/>
       <c r="ET34" s="9"/>
     </row>
-    <row r="35" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -25727,12 +25727,12 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25884,7 +25884,7 @@
       <c r="ES37" s="9"/>
       <c r="ET37" s="9"/>
     </row>
-    <row r="38" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -26036,37 +26036,37 @@
       <c r="ES38" s="9"/>
       <c r="ET38" s="9"/>
     </row>
-    <row r="39" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="16" t="s">
         <v>5</v>
@@ -26095,7 +26095,7 @@
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
     </row>
-    <row r="48" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -26170,10 +26170,10 @@
       </c>
       <c r="Y48" s="17"/>
     </row>
-    <row r="49" spans="1:145" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:145" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -26241,10 +26241,10 @@
         <v>-9.5618361920145958</v>
       </c>
       <c r="W50" s="18">
-        <v>56.774586070322073</v>
+        <v>58.232270611384735</v>
       </c>
       <c r="X50" s="18">
-        <v>41.735904758255572</v>
+        <v>41.66572933144505</v>
       </c>
       <c r="Y50" s="18"/>
       <c r="Z50" s="9"/>
@@ -26368,7 +26368,7 @@
       <c r="EN50" s="9"/>
       <c r="EO50" s="9"/>
     </row>
-    <row r="51" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -26436,10 +26436,10 @@
         <v>21.264002652533904</v>
       </c>
       <c r="W51" s="18">
-        <v>33.310956738915991</v>
+        <v>33.376693063202509</v>
       </c>
       <c r="X51" s="18">
-        <v>24.659030657859034</v>
+        <v>24.74086236085293</v>
       </c>
       <c r="Y51" s="18"/>
       <c r="Z51" s="9"/>
@@ -26563,7 +26563,7 @@
       <c r="EN51" s="9"/>
       <c r="EO51" s="9"/>
     </row>
-    <row r="52" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -26710,7 +26710,7 @@
       <c r="EN52" s="9"/>
       <c r="EO52" s="9"/>
     </row>
-    <row r="53" spans="1:145" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:145" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>1</v>
       </c>
@@ -26778,10 +26778,10 @@
         <v>12.716246685124389</v>
       </c>
       <c r="W53" s="18">
-        <v>38.531282654798616</v>
+        <v>38.906707784980028</v>
       </c>
       <c r="X53" s="18">
-        <v>28.958735188833685</v>
+        <v>29.030291861075625</v>
       </c>
       <c r="Y53" s="18"/>
       <c r="Z53" s="9"/>
@@ -26905,7 +26905,7 @@
       <c r="EN53" s="9"/>
       <c r="EO53" s="9"/>
     </row>
-    <row r="54" spans="1:145" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:145" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -26932,12 +26932,12 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -27084,7 +27084,7 @@
       <c r="EN56" s="9"/>
       <c r="EO56" s="9"/>
     </row>
-    <row r="57" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -27231,37 +27231,37 @@
       <c r="EN57" s="9"/>
       <c r="EO57" s="9"/>
     </row>
-    <row r="58" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="16" t="s">
         <v>5</v>
@@ -27290,7 +27290,7 @@
       <c r="X66" s="16"/>
       <c r="Y66" s="16"/>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -27365,10 +27365,10 @@
       </c>
       <c r="Y67" s="6"/>
     </row>
-    <row r="68" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -27436,10 +27436,10 @@
         <v>-10.476131403930509</v>
       </c>
       <c r="W69" s="18">
-        <v>51.968447202656819</v>
+        <v>53.375493228423522</v>
       </c>
       <c r="X69" s="18">
-        <v>35.892285736775534</v>
+        <v>35.823013150510917</v>
       </c>
       <c r="Y69" s="18"/>
       <c r="Z69" s="9"/>
@@ -27563,7 +27563,7 @@
       <c r="EN69" s="9"/>
       <c r="EO69" s="9"/>
     </row>
-    <row r="70" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -27631,10 +27631,10 @@
         <v>14.107912741006629</v>
       </c>
       <c r="W70" s="18">
-        <v>25.977040896261343</v>
+        <v>26.039341535023496</v>
       </c>
       <c r="X70" s="18">
-        <v>18.794971890306385</v>
+        <v>18.424385609129175</v>
       </c>
       <c r="Y70" s="18"/>
       <c r="Z70" s="9"/>
@@ -27758,7 +27758,7 @@
       <c r="EN70" s="9"/>
       <c r="EO70" s="9"/>
     </row>
-    <row r="71" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -27905,7 +27905,7 @@
       <c r="EN71" s="9"/>
       <c r="EO71" s="9"/>
     </row>
-    <row r="72" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
@@ -27973,10 +27973,10 @@
         <v>7.1581354222540909</v>
       </c>
       <c r="W72" s="18">
-        <v>32.115523558266432</v>
+        <v>32.495417487119539</v>
       </c>
       <c r="X72" s="18">
-        <v>23.439683083183496</v>
+        <v>23.181037405762297</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="9"/>
@@ -28100,7 +28100,7 @@
       <c r="EN72" s="9"/>
       <c r="EO72" s="9"/>
     </row>
-    <row r="73" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -28127,12 +28127,12 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -28284,7 +28284,7 @@
       <c r="ES75" s="9"/>
       <c r="ET75" s="9"/>
     </row>
-    <row r="76" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -28436,32 +28436,32 @@
       <c r="ES76" s="9"/>
       <c r="ET76" s="9"/>
     </row>
-    <row r="77" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>5</v>
@@ -28490,7 +28490,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -28567,10 +28567,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -28641,10 +28641,10 @@
         <v>108.15393560821195</v>
       </c>
       <c r="X87" s="18">
-        <v>111.57440112711281</v>
+        <v>111.57873038659226</v>
       </c>
       <c r="Y87" s="18">
-        <v>116.37230624145883</v>
+        <v>116.37852710996054</v>
       </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -28772,7 +28772,7 @@
       <c r="ES87" s="9"/>
       <c r="ET87" s="9"/>
     </row>
-    <row r="88" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -28843,10 +28843,10 @@
         <v>116.86507773700512</v>
       </c>
       <c r="X88" s="18">
-        <v>123.66852889739765</v>
+        <v>123.66835159008296</v>
       </c>
       <c r="Y88" s="18">
-        <v>129.77316034443197</v>
+        <v>130.2645290895467</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -28974,7 +28974,7 @@
       <c r="ES88" s="9"/>
       <c r="ET88" s="9"/>
     </row>
-    <row r="89" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -29126,7 +29126,7 @@
       <c r="ES89" s="9"/>
       <c r="ET89" s="9"/>
     </row>
-    <row r="90" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
@@ -29197,10 +29197,10 @@
         <v>114.80773638757988</v>
       </c>
       <c r="X90" s="18">
-        <v>120.38299930326622</v>
+        <v>120.36314155087598</v>
       </c>
       <c r="Y90" s="18">
-        <v>125.76538549540712</v>
+        <v>126.07858815531443</v>
       </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -29328,7 +29328,7 @@
       <c r="ES90" s="9"/>
       <c r="ET90" s="9"/>
     </row>
-    <row r="91" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -29355,42 +29355,42 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
         <v>5</v>
@@ -29419,7 +29419,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -29496,10 +29496,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -29570,10 +29570,10 @@
         <v>22.248586704765362</v>
       </c>
       <c r="X106" s="18">
-        <v>25.178522168028433</v>
+        <v>25.343948095283814</v>
       </c>
       <c r="Y106" s="18">
-        <v>27.673198056228397</v>
+        <v>27.825782917102508</v>
       </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -29701,7 +29701,7 @@
       <c r="ES106" s="9"/>
       <c r="ET106" s="9"/>
     </row>
-    <row r="107" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -29772,10 +29772,10 @@
         <v>77.751413295234627</v>
       </c>
       <c r="X107" s="18">
-        <v>74.821477831971563</v>
+        <v>74.656051904716179</v>
       </c>
       <c r="Y107" s="18">
-        <v>72.326801943771599</v>
+        <v>72.174217082897499</v>
       </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -29903,7 +29903,7 @@
       <c r="ES107" s="9"/>
       <c r="ET107" s="9"/>
     </row>
-    <row r="108" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -30055,7 +30055,7 @@
       <c r="ES108" s="9"/>
       <c r="ET108" s="9"/>
     </row>
-    <row r="109" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>1</v>
       </c>
@@ -30257,7 +30257,7 @@
       <c r="ES109" s="9"/>
       <c r="ET109" s="9"/>
     </row>
-    <row r="110" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -30284,12 +30284,12 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
     </row>
-    <row r="111" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -30441,7 +30441,7 @@
       <c r="ES112" s="9"/>
       <c r="ET112" s="9"/>
     </row>
-    <row r="113" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -30593,37 +30593,37 @@
       <c r="ES113" s="9"/>
       <c r="ET113" s="9"/>
     </row>
-    <row r="114" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>5</v>
@@ -30652,7 +30652,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -30729,10 +30729,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -30803,10 +30803,10 @@
         <v>23.617354865845229</v>
       </c>
       <c r="X125" s="18">
-        <v>27.166321181126957</v>
+        <v>27.339235726034545</v>
       </c>
       <c r="Y125" s="18">
-        <v>29.906861295771179</v>
+        <v>30.145040598338092</v>
       </c>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
@@ -30934,7 +30934,7 @@
       <c r="ES125" s="9"/>
       <c r="ET125" s="9"/>
     </row>
-    <row r="126" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -31005,10 +31005,10 @@
         <v>76.382645134154771</v>
       </c>
       <c r="X126" s="18">
-        <v>72.83367881887304</v>
+        <v>72.660764273965455</v>
       </c>
       <c r="Y126" s="18">
-        <v>70.093138704228807</v>
+        <v>69.854959401661915</v>
       </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -31136,7 +31136,7 @@
       <c r="ES126" s="9"/>
       <c r="ET126" s="9"/>
     </row>
-    <row r="127" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -31288,7 +31288,7 @@
       <c r="ES127" s="9"/>
       <c r="ET127" s="9"/>
     </row>
-    <row r="128" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>1</v>
       </c>
@@ -31490,7 +31490,7 @@
       <c r="ES128" s="9"/>
       <c r="ET128" s="9"/>
     </row>
-    <row r="129" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -31517,12 +31517,12 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
     </row>
-    <row r="130" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:150" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -31674,7 +31674,7 @@
       <c r="ES131" s="19"/>
       <c r="ET131" s="19"/>
     </row>
-    <row r="132" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:150" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>

--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27467A99-DD49-4297-9989-E6EB68749839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D4BF9-FA40-47F1-810B-87646E63EC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$Y$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$Z$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -609,13 +609,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -739,10 +744,12 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{5459B011-159C-4934-8538-BEE94E3159CF}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8E9FD32E-0695-4C24-BF8A-1DBBB98B7896}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23563,44 +23570,44 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.1796875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
+    <col min="2" max="26" width="11.21875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -23628,8 +23635,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -23705,11 +23713,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23785,7 +23796,9 @@
       <c r="Y12" s="8">
         <v>142230.27261998469</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>164281.471977017</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -23911,7 +23924,7 @@
       <c r="ES12" s="9"/>
       <c r="ET12" s="9"/>
     </row>
-    <row r="13" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23987,7 +24000,9 @@
       <c r="Y13" s="8">
         <v>368915.35459816619</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>422184.35480666754</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -24113,7 +24128,7 @@
       <c r="ES13" s="9"/>
       <c r="ET13" s="9"/>
     </row>
-    <row r="14" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -24265,7 +24280,7 @@
       <c r="ES14" s="9"/>
       <c r="ET14" s="9"/>
     </row>
-    <row r="15" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -24341,7 +24356,9 @@
       <c r="Y15" s="11">
         <v>511145.62721815088</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="11">
+        <v>586465.82678368455</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -24467,7 +24484,7 @@
       <c r="ES15" s="9"/>
       <c r="ET15" s="9"/>
     </row>
-    <row r="16" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -24493,13 +24510,14 @@
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -24651,7 +24669,7 @@
       <c r="ES18" s="9"/>
       <c r="ET18" s="9"/>
     </row>
-    <row r="19" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -24677,7 +24695,7 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -24803,37 +24821,37 @@
       <c r="ES19" s="9"/>
       <c r="ET19" s="9"/>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -24861,8 +24879,9 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -24938,11 +24957,14 @@
       <c r="Y29" s="15">
         <v>2023</v>
       </c>
+      <c r="Z29" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="30" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -25018,7 +25040,9 @@
       <c r="Y31" s="8">
         <v>122213.50119476771</v>
       </c>
-      <c r="Z31" s="9"/>
+      <c r="Z31" s="8">
+        <v>137825.60740524775</v>
+      </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -25144,7 +25168,7 @@
       <c r="ES31" s="9"/>
       <c r="ET31" s="9"/>
     </row>
-    <row r="32" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -25220,7 +25244,9 @@
       <c r="Y32" s="8">
         <v>283204.76585346239</v>
       </c>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="8">
+        <v>309176.01702177018</v>
+      </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -25346,7 +25372,7 @@
       <c r="ES32" s="9"/>
       <c r="ET32" s="9"/>
     </row>
-    <row r="33" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -25498,7 +25524,7 @@
       <c r="ES33" s="9"/>
       <c r="ET33" s="9"/>
     </row>
-    <row r="34" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -25574,7 +25600,9 @@
       <c r="Y34" s="11">
         <v>405418.2670482301</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="11">
+        <v>447001.62442701793</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -25700,7 +25728,7 @@
       <c r="ES34" s="9"/>
       <c r="ET34" s="9"/>
     </row>
-    <row r="35" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -25726,13 +25754,14 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25884,7 +25913,7 @@
       <c r="ES37" s="9"/>
       <c r="ET37" s="9"/>
     </row>
-    <row r="38" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -26036,37 +26065,37 @@
       <c r="ES38" s="9"/>
       <c r="ET38" s="9"/>
     </row>
-    <row r="39" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="16" t="s">
         <v>5</v>
@@ -26094,8 +26123,9 @@
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
     </row>
-    <row r="48" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -26168,12 +26198,15 @@
       <c r="X48" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Y48" s="17"/>
+      <c r="Y48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="17"/>
     </row>
-    <row r="49" spans="1:145" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:145" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -26246,8 +26279,10 @@
       <c r="X50" s="18">
         <v>41.66572933144505</v>
       </c>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="9"/>
+      <c r="Y50" s="18">
+        <v>15.503871961174823</v>
+      </c>
+      <c r="Z50" s="18"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
@@ -26368,7 +26403,7 @@
       <c r="EN50" s="9"/>
       <c r="EO50" s="9"/>
     </row>
-    <row r="51" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -26441,8 +26476,10 @@
       <c r="X51" s="18">
         <v>24.74086236085293</v>
       </c>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="9"/>
+      <c r="Y51" s="18">
+        <v>14.43935567998345</v>
+      </c>
+      <c r="Z51" s="18"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
@@ -26563,7 +26600,7 @@
       <c r="EN51" s="9"/>
       <c r="EO51" s="9"/>
     </row>
-    <row r="52" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -26710,7 +26747,7 @@
       <c r="EN52" s="9"/>
       <c r="EO52" s="9"/>
     </row>
-    <row r="53" spans="1:145" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:145" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>1</v>
       </c>
@@ -26783,8 +26820,10 @@
       <c r="X53" s="18">
         <v>29.030291861075625</v>
       </c>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="9"/>
+      <c r="Y53" s="18">
+        <v>14.73556566950495</v>
+      </c>
+      <c r="Z53" s="18"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
@@ -26905,7 +26944,7 @@
       <c r="EN53" s="9"/>
       <c r="EO53" s="9"/>
     </row>
-    <row r="54" spans="1:145" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:145" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -26931,13 +26970,14 @@
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
     </row>
-    <row r="55" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -27084,7 +27124,7 @@
       <c r="EN56" s="9"/>
       <c r="EO56" s="9"/>
     </row>
-    <row r="57" spans="1:145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -27231,37 +27271,37 @@
       <c r="EN57" s="9"/>
       <c r="EO57" s="9"/>
     </row>
-    <row r="58" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="16" t="s">
         <v>5</v>
@@ -27289,8 +27329,9 @@
       <c r="W66" s="16"/>
       <c r="X66" s="16"/>
       <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -27363,12 +27404,15 @@
       <c r="X67" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Y67" s="6"/>
+      <c r="Y67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -27441,8 +27485,10 @@
       <c r="X69" s="18">
         <v>35.823013150510917</v>
       </c>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="9"/>
+      <c r="Y69" s="18">
+        <v>12.774452951478338</v>
+      </c>
+      <c r="Z69" s="18"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -27563,7 +27609,7 @@
       <c r="EN69" s="9"/>
       <c r="EO69" s="9"/>
     </row>
-    <row r="70" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -27636,8 +27682,10 @@
       <c r="X70" s="18">
         <v>18.424385609129175</v>
       </c>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="9"/>
+      <c r="Y70" s="18">
+        <v>9.1704852106005745</v>
+      </c>
+      <c r="Z70" s="18"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
@@ -27758,7 +27806,7 @@
       <c r="EN70" s="9"/>
       <c r="EO70" s="9"/>
     </row>
-    <row r="71" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -27905,7 +27953,7 @@
       <c r="EN71" s="9"/>
       <c r="EO71" s="9"/>
     </row>
-    <row r="72" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
@@ -27978,8 +28026,10 @@
       <c r="X72" s="18">
         <v>23.181037405762297</v>
       </c>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="9"/>
+      <c r="Y72" s="18">
+        <v>10.256902749239202</v>
+      </c>
+      <c r="Z72" s="18"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
@@ -28100,7 +28150,7 @@
       <c r="EN72" s="9"/>
       <c r="EO72" s="9"/>
     </row>
-    <row r="73" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -28126,13 +28176,14 @@
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
     </row>
-    <row r="74" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -28284,7 +28335,7 @@
       <c r="ES75" s="9"/>
       <c r="ET75" s="9"/>
     </row>
-    <row r="76" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -28436,32 +28487,32 @@
       <c r="ES76" s="9"/>
       <c r="ET76" s="9"/>
     </row>
-    <row r="77" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>5</v>
@@ -28489,8 +28540,9 @@
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -28566,11 +28618,14 @@
       <c r="Y85" s="15">
         <v>2023</v>
       </c>
+      <c r="Z85" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="86" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -28646,7 +28701,9 @@
       <c r="Y87" s="18">
         <v>116.37852710996054</v>
       </c>
-      <c r="Z87" s="9"/>
+      <c r="Z87" s="18">
+        <v>119.19517357466182</v>
+      </c>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
@@ -28772,7 +28829,7 @@
       <c r="ES87" s="9"/>
       <c r="ET87" s="9"/>
     </row>
-    <row r="88" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -28848,7 +28905,9 @@
       <c r="Y88" s="18">
         <v>130.2645290895467</v>
       </c>
-      <c r="Z88" s="9"/>
+      <c r="Z88" s="18">
+        <v>136.55145663414768</v>
+      </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -28974,7 +29033,7 @@
       <c r="ES88" s="9"/>
       <c r="ET88" s="9"/>
     </row>
-    <row r="89" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -29126,7 +29185,7 @@
       <c r="ES89" s="9"/>
       <c r="ET89" s="9"/>
     </row>
-    <row r="90" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
@@ -29202,7 +29261,9 @@
       <c r="Y90" s="18">
         <v>126.07858815531443</v>
       </c>
-      <c r="Z90" s="9"/>
+      <c r="Z90" s="18">
+        <v>131.1999318873699</v>
+      </c>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
@@ -29328,7 +29389,7 @@
       <c r="ES90" s="9"/>
       <c r="ET90" s="9"/>
     </row>
-    <row r="91" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -29354,43 +29415,44 @@
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
         <v>5</v>
@@ -29418,8 +29480,9 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -29495,11 +29558,14 @@
       <c r="Y104" s="15">
         <v>2023</v>
       </c>
+      <c r="Z104" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="105" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -29575,7 +29641,9 @@
       <c r="Y106" s="18">
         <v>27.825782917102508</v>
       </c>
-      <c r="Z106" s="9"/>
+      <c r="Z106" s="18">
+        <v>28.012113319197972</v>
+      </c>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
@@ -29701,7 +29769,7 @@
       <c r="ES106" s="9"/>
       <c r="ET106" s="9"/>
     </row>
-    <row r="107" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -29777,7 +29845,9 @@
       <c r="Y107" s="18">
         <v>72.174217082897499</v>
       </c>
-      <c r="Z107" s="9"/>
+      <c r="Z107" s="18">
+        <v>71.987886680802021</v>
+      </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
@@ -29903,7 +29973,7 @@
       <c r="ES107" s="9"/>
       <c r="ET107" s="9"/>
     </row>
-    <row r="108" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -30055,7 +30125,7 @@
       <c r="ES108" s="9"/>
       <c r="ET108" s="9"/>
     </row>
-    <row r="109" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>1</v>
       </c>
@@ -30131,7 +30201,9 @@
       <c r="Y109" s="18">
         <v>100</v>
       </c>
-      <c r="Z109" s="9"/>
+      <c r="Z109" s="18">
+        <v>100</v>
+      </c>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
@@ -30257,7 +30329,7 @@
       <c r="ES109" s="9"/>
       <c r="ET109" s="9"/>
     </row>
-    <row r="110" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -30283,13 +30355,14 @@
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
     </row>
-    <row r="111" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -30441,7 +30514,7 @@
       <c r="ES112" s="9"/>
       <c r="ET112" s="9"/>
     </row>
-    <row r="113" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -30593,37 +30666,37 @@
       <c r="ES113" s="9"/>
       <c r="ET113" s="9"/>
     </row>
-    <row r="114" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>5</v>
@@ -30651,8 +30724,9 @@
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -30728,11 +30802,14 @@
       <c r="Y123" s="15">
         <v>2023</v>
       </c>
+      <c r="Z123" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="124" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -30808,7 +30885,9 @@
       <c r="Y125" s="18">
         <v>30.145040598338092</v>
       </c>
-      <c r="Z125" s="9"/>
+      <c r="Z125" s="18">
+        <v>30.83335716775467</v>
+      </c>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
@@ -30934,7 +31013,7 @@
       <c r="ES125" s="9"/>
       <c r="ET125" s="9"/>
     </row>
-    <row r="126" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -31010,7 +31089,9 @@
       <c r="Y126" s="18">
         <v>69.854959401661915</v>
       </c>
-      <c r="Z126" s="9"/>
+      <c r="Z126" s="18">
+        <v>69.16664283224533</v>
+      </c>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
@@ -31136,7 +31217,7 @@
       <c r="ES126" s="9"/>
       <c r="ET126" s="9"/>
     </row>
-    <row r="127" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -31288,7 +31369,7 @@
       <c r="ES127" s="9"/>
       <c r="ET127" s="9"/>
     </row>
-    <row r="128" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1</v>
       </c>
@@ -31364,7 +31445,9 @@
       <c r="Y128" s="18">
         <v>100</v>
       </c>
-      <c r="Z128" s="9"/>
+      <c r="Z128" s="18">
+        <v>100</v>
+      </c>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
@@ -31490,7 +31573,7 @@
       <c r="ES128" s="9"/>
       <c r="ET128" s="9"/>
     </row>
-    <row r="129" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -31516,13 +31599,14 @@
       <c r="W129" s="12"/>
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
+      <c r="Z129" s="12"/>
     </row>
-    <row r="130" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:150" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -31674,7 +31758,7 @@
       <c r="ES131" s="19"/>
       <c r="ET131" s="19"/>
     </row>
-    <row r="132" spans="1:150" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -31832,9 +31916,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="24" man="1"/>
-    <brk id="76" max="24" man="1"/>
-    <brk id="94" max="24" man="1"/>
+    <brk id="38" max="25" man="1"/>
+    <brk id="76" max="25" man="1"/>
+    <brk id="94" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D4BF9-FA40-47F1-810B-87646E63EC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B5813-F35C-4FC5-ADFA-33B2F4AA5A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23562,12 +23562,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:ET132"/>
+  <dimension ref="A1:ES132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23577,37 +23577,37 @@
     <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -23637,7 +23637,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -23717,10 +23717,10 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23794,10 +23794,10 @@
         <v>100398.50378154537</v>
       </c>
       <c r="Y12" s="8">
-        <v>142230.27261998469</v>
+        <v>141953.54745028628</v>
       </c>
       <c r="Z12" s="8">
-        <v>164281.471977017</v>
+        <v>164662.76432675688</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23922,9 +23922,8 @@
       <c r="EQ12" s="9"/>
       <c r="ER12" s="9"/>
       <c r="ES12" s="9"/>
-      <c r="ET12" s="9"/>
     </row>
-    <row r="13" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23998,10 +23997,10 @@
         <v>295745.39378360257</v>
       </c>
       <c r="Y13" s="8">
-        <v>368915.35459816619</v>
+        <v>368255.84238612547</v>
       </c>
       <c r="Z13" s="8">
-        <v>422184.35480666754</v>
+        <v>421294.13336453226</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24126,9 +24125,8 @@
       <c r="EQ13" s="9"/>
       <c r="ER13" s="9"/>
       <c r="ES13" s="9"/>
-      <c r="ET13" s="9"/>
     </row>
-    <row r="14" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -24278,9 +24276,8 @@
       <c r="EQ14" s="9"/>
       <c r="ER14" s="9"/>
       <c r="ES14" s="9"/>
-      <c r="ET14" s="9"/>
     </row>
-    <row r="15" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -24354,10 +24351,10 @@
         <v>396143.89756514796</v>
       </c>
       <c r="Y15" s="11">
-        <v>511145.62721815088</v>
+        <v>510209.38983641175</v>
       </c>
       <c r="Z15" s="11">
-        <v>586465.82678368455</v>
+        <v>585956.8976912892</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24482,9 +24479,8 @@
       <c r="EQ15" s="9"/>
       <c r="ER15" s="9"/>
       <c r="ES15" s="9"/>
-      <c r="ET15" s="9"/>
     </row>
-    <row r="16" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -24512,12 +24508,12 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -24667,9 +24663,8 @@
       <c r="EQ18" s="9"/>
       <c r="ER18" s="9"/>
       <c r="ES18" s="9"/>
-      <c r="ET18" s="9"/>
     </row>
-    <row r="19" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -24819,39 +24814,38 @@
       <c r="EQ19" s="9"/>
       <c r="ER19" s="9"/>
       <c r="ES19" s="9"/>
-      <c r="ET19" s="9"/>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -24881,7 +24875,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -24961,10 +24955,10 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="30" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -25038,10 +25032,10 @@
         <v>89979.966104372928</v>
       </c>
       <c r="Y31" s="8">
-        <v>122213.50119476771</v>
+        <v>121976.30995911067</v>
       </c>
       <c r="Z31" s="8">
-        <v>137825.60740524775</v>
+        <v>138146.58971226332</v>
       </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -25166,9 +25160,8 @@
       <c r="EQ31" s="9"/>
       <c r="ER31" s="9"/>
       <c r="ES31" s="9"/>
-      <c r="ET31" s="9"/>
     </row>
-    <row r="32" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -25242,10 +25235,10 @@
         <v>239143.96042400115</v>
       </c>
       <c r="Y32" s="8">
-        <v>283204.76585346239</v>
+        <v>282697.31699210487</v>
       </c>
       <c r="Z32" s="8">
-        <v>309176.01702177018</v>
+        <v>308517.0660537784</v>
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -25370,9 +25363,8 @@
       <c r="EQ32" s="9"/>
       <c r="ER32" s="9"/>
       <c r="ES32" s="9"/>
-      <c r="ET32" s="9"/>
     </row>
-    <row r="33" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -25522,9 +25514,8 @@
       <c r="EQ33" s="9"/>
       <c r="ER33" s="9"/>
       <c r="ES33" s="9"/>
-      <c r="ET33" s="9"/>
     </row>
-    <row r="34" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -25598,10 +25589,10 @@
         <v>329123.92652837408</v>
       </c>
       <c r="Y34" s="11">
-        <v>405418.2670482301</v>
+        <v>404673.62695121556</v>
       </c>
       <c r="Z34" s="11">
-        <v>447001.62442701793</v>
+        <v>446663.65576604172</v>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25726,9 +25717,8 @@
       <c r="EQ34" s="9"/>
       <c r="ER34" s="9"/>
       <c r="ES34" s="9"/>
-      <c r="ET34" s="9"/>
     </row>
-    <row r="35" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -25756,12 +25746,12 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25911,9 +25901,8 @@
       <c r="EQ37" s="9"/>
       <c r="ER37" s="9"/>
       <c r="ES37" s="9"/>
-      <c r="ET37" s="9"/>
     </row>
-    <row r="38" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -26063,39 +26052,38 @@
       <c r="EQ38" s="9"/>
       <c r="ER38" s="9"/>
       <c r="ES38" s="9"/>
-      <c r="ET38" s="9"/>
     </row>
-    <row r="39" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="16" t="s">
         <v>5</v>
@@ -26125,7 +26113,7 @@
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
     </row>
-    <row r="48" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -26203,10 +26191,10 @@
       </c>
       <c r="Z48" s="17"/>
     </row>
-    <row r="49" spans="1:145" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:144" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:144" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -26277,10 +26265,10 @@
         <v>58.232270611384735</v>
       </c>
       <c r="X50" s="18">
-        <v>41.66572933144505</v>
+        <v>41.39010254491393</v>
       </c>
       <c r="Y50" s="18">
-        <v>15.503871961174823</v>
+        <v>15.997639568974932</v>
       </c>
       <c r="Z50" s="18"/>
       <c r="AA50" s="9"/>
@@ -26401,9 +26389,8 @@
       <c r="EL50" s="9"/>
       <c r="EM50" s="9"/>
       <c r="EN50" s="9"/>
-      <c r="EO50" s="9"/>
     </row>
-    <row r="51" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:144" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -26474,10 +26461,10 @@
         <v>33.376693063202509</v>
       </c>
       <c r="X51" s="18">
-        <v>24.74086236085293</v>
+        <v>24.517862366295702</v>
       </c>
       <c r="Y51" s="18">
-        <v>14.43935567998345</v>
+        <v>14.402566062426473</v>
       </c>
       <c r="Z51" s="18"/>
       <c r="AA51" s="9"/>
@@ -26598,9 +26585,8 @@
       <c r="EL51" s="9"/>
       <c r="EM51" s="9"/>
       <c r="EN51" s="9"/>
-      <c r="EO51" s="9"/>
     </row>
-    <row r="52" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:144" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -26745,9 +26731,8 @@
       <c r="EL52" s="9"/>
       <c r="EM52" s="9"/>
       <c r="EN52" s="9"/>
-      <c r="EO52" s="9"/>
     </row>
-    <row r="53" spans="1:145" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:144" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>1</v>
       </c>
@@ -26818,10 +26803,10 @@
         <v>38.906707784980028</v>
       </c>
       <c r="X53" s="18">
-        <v>29.030291861075625</v>
+        <v>28.793954159676304</v>
       </c>
       <c r="Y53" s="18">
-        <v>14.73556566950495</v>
+        <v>14.846357076878647</v>
       </c>
       <c r="Z53" s="18"/>
       <c r="AA53" s="9"/>
@@ -26942,9 +26927,8 @@
       <c r="EL53" s="9"/>
       <c r="EM53" s="9"/>
       <c r="EN53" s="9"/>
-      <c r="EO53" s="9"/>
     </row>
-    <row r="54" spans="1:145" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:144" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -26972,12 +26956,12 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
     </row>
-    <row r="55" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:144" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -27122,9 +27106,8 @@
       <c r="EL56" s="9"/>
       <c r="EM56" s="9"/>
       <c r="EN56" s="9"/>
-      <c r="EO56" s="9"/>
     </row>
-    <row r="57" spans="1:145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:144" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -27269,39 +27252,38 @@
       <c r="EL57" s="9"/>
       <c r="EM57" s="9"/>
       <c r="EN57" s="9"/>
-      <c r="EO57" s="9"/>
     </row>
-    <row r="58" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="16" t="s">
         <v>5</v>
@@ -27331,7 +27313,7 @@
       <c r="Y66" s="16"/>
       <c r="Z66" s="16"/>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -27409,10 +27391,10 @@
       </c>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -27483,10 +27465,10 @@
         <v>53.375493228423522</v>
       </c>
       <c r="X69" s="18">
-        <v>35.823013150510917</v>
+        <v>35.559408655059229</v>
       </c>
       <c r="Y69" s="18">
-        <v>12.774452951478338</v>
+        <v>13.256901900519296</v>
       </c>
       <c r="Z69" s="18"/>
       <c r="AA69" s="9"/>
@@ -27607,9 +27589,8 @@
       <c r="EL69" s="9"/>
       <c r="EM69" s="9"/>
       <c r="EN69" s="9"/>
-      <c r="EO69" s="9"/>
     </row>
-    <row r="70" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -27680,10 +27661,10 @@
         <v>26.039341535023496</v>
       </c>
       <c r="X70" s="18">
-        <v>18.424385609129175</v>
+        <v>18.212191723714795</v>
       </c>
       <c r="Y70" s="18">
-        <v>9.1704852106005745</v>
+        <v>9.1333548320851747</v>
       </c>
       <c r="Z70" s="18"/>
       <c r="AA70" s="9"/>
@@ -27804,9 +27785,8 @@
       <c r="EL70" s="9"/>
       <c r="EM70" s="9"/>
       <c r="EN70" s="9"/>
-      <c r="EO70" s="9"/>
     </row>
-    <row r="71" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -27951,9 +27931,8 @@
       <c r="EL71" s="9"/>
       <c r="EM71" s="9"/>
       <c r="EN71" s="9"/>
-      <c r="EO71" s="9"/>
     </row>
-    <row r="72" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
@@ -28024,10 +28003,10 @@
         <v>32.495417487119539</v>
       </c>
       <c r="X72" s="18">
-        <v>23.181037405762297</v>
+        <v>22.954788252481634</v>
       </c>
       <c r="Y72" s="18">
-        <v>10.256902749239202</v>
+        <v>10.376270163977892</v>
       </c>
       <c r="Z72" s="18"/>
       <c r="AA72" s="9"/>
@@ -28148,9 +28127,8 @@
       <c r="EL72" s="9"/>
       <c r="EM72" s="9"/>
       <c r="EN72" s="9"/>
-      <c r="EO72" s="9"/>
     </row>
-    <row r="73" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -28178,12 +28156,12 @@
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
     </row>
-    <row r="74" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -28333,9 +28311,8 @@
       <c r="EQ75" s="9"/>
       <c r="ER75" s="9"/>
       <c r="ES75" s="9"/>
-      <c r="ET75" s="9"/>
     </row>
-    <row r="76" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -28485,34 +28462,33 @@
       <c r="EQ76" s="9"/>
       <c r="ER76" s="9"/>
       <c r="ES76" s="9"/>
-      <c r="ET76" s="9"/>
     </row>
-    <row r="77" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>5</v>
@@ -28542,7 +28518,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -28622,10 +28598,10 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="86" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -28699,10 +28675,10 @@
         <v>111.57873038659226</v>
       </c>
       <c r="Y87" s="18">
-        <v>116.37852710996054</v>
+        <v>116.37796511295713</v>
       </c>
       <c r="Z87" s="18">
-        <v>119.19517357466182</v>
+        <v>119.19423032426815</v>
       </c>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -28827,9 +28803,8 @@
       <c r="EQ87" s="9"/>
       <c r="ER87" s="9"/>
       <c r="ES87" s="9"/>
-      <c r="ET87" s="9"/>
     </row>
-    <row r="88" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -28903,10 +28878,10 @@
         <v>123.66835159008296</v>
       </c>
       <c r="Y88" s="18">
-        <v>130.2645290895467</v>
+        <v>130.26506452355545</v>
       </c>
       <c r="Z88" s="18">
-        <v>136.55145663414768</v>
+        <v>136.55456365940398</v>
       </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -29031,9 +29006,8 @@
       <c r="EQ88" s="9"/>
       <c r="ER88" s="9"/>
       <c r="ES88" s="9"/>
-      <c r="ET88" s="9"/>
     </row>
-    <row r="89" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -29183,9 +29157,8 @@
       <c r="EQ89" s="9"/>
       <c r="ER89" s="9"/>
       <c r="ES89" s="9"/>
-      <c r="ET89" s="9"/>
     </row>
-    <row r="90" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
@@ -29259,10 +29232,10 @@
         <v>120.36314155087598</v>
       </c>
       <c r="Y90" s="18">
-        <v>126.07858815531443</v>
+        <v>126.07922924957964</v>
       </c>
       <c r="Z90" s="18">
-        <v>131.1999318873699</v>
+        <v>131.18526437669422</v>
       </c>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -29387,9 +29360,8 @@
       <c r="EQ90" s="9"/>
       <c r="ER90" s="9"/>
       <c r="ES90" s="9"/>
-      <c r="ET90" s="9"/>
     </row>
-    <row r="91" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -29417,42 +29389,42 @@
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
         <v>5</v>
@@ -29482,7 +29454,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -29562,10 +29534,10 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="105" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -29639,10 +29611,10 @@
         <v>25.343948095283814</v>
       </c>
       <c r="Y106" s="18">
-        <v>27.825782917102508</v>
+        <v>27.822605831656837</v>
       </c>
       <c r="Z106" s="18">
-        <v>28.012113319197972</v>
+        <v>28.101514800071403</v>
       </c>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -29767,9 +29739,8 @@
       <c r="EQ106" s="9"/>
       <c r="ER106" s="9"/>
       <c r="ES106" s="9"/>
-      <c r="ET106" s="9"/>
     </row>
-    <row r="107" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -29843,10 +29814,10 @@
         <v>74.656051904716179</v>
       </c>
       <c r="Y107" s="18">
-        <v>72.174217082897499</v>
+        <v>72.177394168343156</v>
       </c>
       <c r="Z107" s="18">
-        <v>71.987886680802021</v>
+        <v>71.898485199928587</v>
       </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -29971,9 +29942,8 @@
       <c r="EQ107" s="9"/>
       <c r="ER107" s="9"/>
       <c r="ES107" s="9"/>
-      <c r="ET107" s="9"/>
     </row>
-    <row r="108" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -30123,9 +30093,8 @@
       <c r="EQ108" s="9"/>
       <c r="ER108" s="9"/>
       <c r="ES108" s="9"/>
-      <c r="ET108" s="9"/>
     </row>
-    <row r="109" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>1</v>
       </c>
@@ -30327,9 +30296,8 @@
       <c r="EQ109" s="9"/>
       <c r="ER109" s="9"/>
       <c r="ES109" s="9"/>
-      <c r="ET109" s="9"/>
     </row>
-    <row r="110" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -30357,12 +30325,12 @@
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
     </row>
-    <row r="111" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -30512,9 +30480,8 @@
       <c r="EQ112" s="9"/>
       <c r="ER112" s="9"/>
       <c r="ES112" s="9"/>
-      <c r="ET112" s="9"/>
     </row>
-    <row r="113" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -30664,39 +30631,38 @@
       <c r="EQ113" s="9"/>
       <c r="ER113" s="9"/>
       <c r="ES113" s="9"/>
-      <c r="ET113" s="9"/>
     </row>
-    <row r="114" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>5</v>
@@ -30726,7 +30692,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -30806,10 +30772,10 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="124" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -30883,10 +30849,10 @@
         <v>27.339235726034545</v>
       </c>
       <c r="Y125" s="18">
-        <v>30.145040598338092</v>
+        <v>30.14189752815674</v>
       </c>
       <c r="Z125" s="18">
-        <v>30.83335716775467</v>
+        <v>30.92854946421323</v>
       </c>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
@@ -31011,9 +30977,8 @@
       <c r="EQ125" s="9"/>
       <c r="ER125" s="9"/>
       <c r="ES125" s="9"/>
-      <c r="ET125" s="9"/>
     </row>
-    <row r="126" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -31087,10 +31052,10 @@
         <v>72.660764273965455</v>
       </c>
       <c r="Y126" s="18">
-        <v>69.854959401661915</v>
+        <v>69.858102471843253</v>
       </c>
       <c r="Z126" s="18">
-        <v>69.16664283224533</v>
+        <v>69.071450535786767</v>
       </c>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
@@ -31215,9 +31180,8 @@
       <c r="EQ126" s="9"/>
       <c r="ER126" s="9"/>
       <c r="ES126" s="9"/>
-      <c r="ET126" s="9"/>
     </row>
-    <row r="127" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -31367,9 +31331,8 @@
       <c r="EQ127" s="9"/>
       <c r="ER127" s="9"/>
       <c r="ES127" s="9"/>
-      <c r="ET127" s="9"/>
     </row>
-    <row r="128" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1</v>
       </c>
@@ -31571,9 +31534,8 @@
       <c r="EQ128" s="9"/>
       <c r="ER128" s="9"/>
       <c r="ES128" s="9"/>
-      <c r="ET128" s="9"/>
     </row>
-    <row r="129" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:149" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -31601,12 +31563,12 @@
       <c r="Y129" s="12"/>
       <c r="Z129" s="12"/>
     </row>
-    <row r="130" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:149" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -31756,9 +31718,8 @@
       <c r="EQ131" s="19"/>
       <c r="ER131" s="19"/>
       <c r="ES131" s="19"/>
-      <c r="ET131" s="19"/>
     </row>
-    <row r="132" spans="1:150" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:149" s="20" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -31908,7 +31869,6 @@
       <c r="EQ132" s="19"/>
       <c r="ER132" s="19"/>
       <c r="ES132" s="19"/>
-      <c r="ET132" s="19"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B5813-F35C-4FC5-ADFA-33B2F4AA5A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ADF0DA-C3AD-44DC-A28B-7D7B7D4AC3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="3585" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$Z$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$AA$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -612,13 +612,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23565,16 +23568,16 @@
   <dimension ref="A1:ES132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="26" width="11.21875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="11.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:149" x14ac:dyDescent="0.2">
@@ -23589,7 +23592,7 @@
     </row>
     <row r="3" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:149" x14ac:dyDescent="0.2">
@@ -23599,7 +23602,7 @@
     </row>
     <row r="6" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:149" x14ac:dyDescent="0.2">
@@ -23636,6 +23639,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23715,6 +23719,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23799,7 +23806,9 @@
       <c r="Z12" s="8">
         <v>164662.76432675688</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>176283.70305196708</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -24002,7 +24011,9 @@
       <c r="Z13" s="8">
         <v>421294.13336453226</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>458452.57549264899</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -24356,7 +24367,9 @@
       <c r="Z15" s="11">
         <v>585956.8976912892</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11">
+        <v>634736.27854461607</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -24507,6 +24520,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -24691,7 +24705,7 @@
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="14"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -24827,7 +24841,7 @@
     </row>
     <row r="22" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:149" x14ac:dyDescent="0.2">
@@ -24837,7 +24851,7 @@
     </row>
     <row r="25" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:149" x14ac:dyDescent="0.2">
@@ -24874,6 +24888,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -24953,6 +24968,9 @@
       </c>
       <c r="Z29" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA29" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25037,7 +25055,9 @@
       <c r="Z31" s="8">
         <v>138146.58971226332</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="8">
+        <v>145376.46576174349</v>
+      </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
@@ -25240,7 +25260,9 @@
       <c r="Z32" s="8">
         <v>308517.0660537784</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="8">
+        <v>327582.95981303847</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -25594,7 +25616,9 @@
       <c r="Z34" s="11">
         <v>446663.65576604172</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="11">
+        <v>472959.42557478196</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -25745,6 +25769,7 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
     </row>
     <row r="36" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -26065,7 +26090,7 @@
     </row>
     <row r="41" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:149" x14ac:dyDescent="0.2">
@@ -26075,7 +26100,7 @@
     </row>
     <row r="44" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:149" x14ac:dyDescent="0.2">
@@ -26112,6 +26137,7 @@
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
     </row>
     <row r="48" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -26189,7 +26215,10 @@
       <c r="Y48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="Z48" s="17"/>
+      <c r="Z48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA48" s="17"/>
     </row>
     <row r="49" spans="1:144" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -26270,8 +26299,10 @@
       <c r="Y50" s="18">
         <v>15.997639568974932</v>
       </c>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="9"/>
+      <c r="Z50" s="18">
+        <v>7.0574174876292091</v>
+      </c>
+      <c r="AA50" s="18"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
@@ -26466,8 +26497,10 @@
       <c r="Y51" s="18">
         <v>14.402566062426473</v>
       </c>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="9"/>
+      <c r="Z51" s="18">
+        <v>8.8200711059901522</v>
+      </c>
+      <c r="AA51" s="18"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
@@ -26808,8 +26841,10 @@
       <c r="Y53" s="18">
         <v>14.846357076878647</v>
       </c>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="9"/>
+      <c r="Z53" s="18">
+        <v>8.3247387385524405</v>
+      </c>
+      <c r="AA53" s="18"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
@@ -26955,6 +26990,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
     </row>
     <row r="55" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -27265,7 +27301,7 @@
     </row>
     <row r="60" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:144" x14ac:dyDescent="0.2">
@@ -27275,7 +27311,7 @@
     </row>
     <row r="63" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:144" x14ac:dyDescent="0.2">
@@ -27312,6 +27348,7 @@
       <c r="X66" s="16"/>
       <c r="Y66" s="16"/>
       <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
     </row>
     <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -27389,7 +27426,10 @@
       <c r="Y67" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Z67" s="6"/>
+      <c r="Z67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA67" s="6"/>
     </row>
     <row r="68" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -27470,8 +27510,10 @@
       <c r="Y69" s="18">
         <v>13.256901900519296</v>
       </c>
-      <c r="Z69" s="18"/>
-      <c r="AA69" s="9"/>
+      <c r="Z69" s="18">
+        <v>5.2334813798435391</v>
+      </c>
+      <c r="AA69" s="18"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
@@ -27666,8 +27708,10 @@
       <c r="Y70" s="18">
         <v>9.1333548320851747</v>
       </c>
-      <c r="Z70" s="18"/>
-      <c r="AA70" s="9"/>
+      <c r="Z70" s="18">
+        <v>6.1798506005293916</v>
+      </c>
+      <c r="AA70" s="18"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
@@ -28008,8 +28052,10 @@
       <c r="Y72" s="18">
         <v>10.376270163977892</v>
       </c>
-      <c r="Z72" s="18"/>
-      <c r="AA72" s="9"/>
+      <c r="Z72" s="18">
+        <v>5.8871523279954801</v>
+      </c>
+      <c r="AA72" s="18"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
@@ -28155,6 +28201,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
     </row>
     <row r="74" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -28470,7 +28517,7 @@
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:149" x14ac:dyDescent="0.2">
@@ -28480,7 +28527,7 @@
     </row>
     <row r="81" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:149" x14ac:dyDescent="0.2">
@@ -28517,6 +28564,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -28596,6 +28644,9 @@
       </c>
       <c r="Z85" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA85" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="86" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28680,7 +28731,9 @@
       <c r="Z87" s="18">
         <v>119.19423032426815</v>
       </c>
-      <c r="AA87" s="9"/>
+      <c r="AA87" s="18">
+        <v>121.26013803422437</v>
+      </c>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
@@ -28883,7 +28936,9 @@
       <c r="Z88" s="18">
         <v>136.55456365940398</v>
       </c>
-      <c r="AA88" s="9"/>
+      <c r="AA88" s="18">
+        <v>139.95006814588336</v>
+      </c>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -29237,7 +29292,9 @@
       <c r="Z90" s="18">
         <v>131.18526437669422</v>
       </c>
-      <c r="AA90" s="9"/>
+      <c r="AA90" s="18">
+        <v>134.20522865639663</v>
+      </c>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
@@ -29388,6 +29445,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -29406,7 +29464,7 @@
     </row>
     <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:149" x14ac:dyDescent="0.2">
@@ -29416,7 +29474,7 @@
     </row>
     <row r="100" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:149" x14ac:dyDescent="0.2">
@@ -29453,6 +29511,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
     </row>
     <row r="104" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -29532,6 +29591,9 @@
       </c>
       <c r="Z104" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA104" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="105" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29616,7 +29678,9 @@
       <c r="Z106" s="18">
         <v>28.101514800071403</v>
       </c>
-      <c r="AA106" s="9"/>
+      <c r="AA106" s="18">
+        <v>27.772747361497469</v>
+      </c>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
       <c r="AD106" s="9"/>
@@ -29819,7 +29883,9 @@
       <c r="Z107" s="18">
         <v>71.898485199928587</v>
       </c>
-      <c r="AA107" s="9"/>
+      <c r="AA107" s="18">
+        <v>72.227252638502534</v>
+      </c>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
@@ -30173,7 +30239,9 @@
       <c r="Z109" s="18">
         <v>100</v>
       </c>
-      <c r="AA109" s="9"/>
+      <c r="AA109" s="18">
+        <v>100</v>
+      </c>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
@@ -30324,6 +30392,7 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
     </row>
     <row r="111" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -30644,7 +30713,7 @@
     </row>
     <row r="116" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:149" x14ac:dyDescent="0.2">
@@ -30654,7 +30723,7 @@
     </row>
     <row r="119" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:149" x14ac:dyDescent="0.2">
@@ -30691,6 +30760,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
     </row>
     <row r="123" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -30770,6 +30840,9 @@
       </c>
       <c r="Z123" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA123" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="124" spans="1:149" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30854,7 +30927,9 @@
       <c r="Z125" s="18">
         <v>30.92854946421323</v>
       </c>
-      <c r="AA125" s="9"/>
+      <c r="AA125" s="18">
+        <v>30.73761889512387</v>
+      </c>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
       <c r="AD125" s="9"/>
@@ -31057,7 +31132,9 @@
       <c r="Z126" s="18">
         <v>69.071450535786767</v>
       </c>
-      <c r="AA126" s="9"/>
+      <c r="AA126" s="18">
+        <v>69.262381104876141</v>
+      </c>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
       <c r="AD126" s="9"/>
@@ -31411,7 +31488,9 @@
       <c r="Z128" s="18">
         <v>100</v>
       </c>
-      <c r="AA128" s="9"/>
+      <c r="AA128" s="18">
+        <v>100</v>
+      </c>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
       <c r="AD128" s="9"/>
@@ -31562,6 +31641,7 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
       <c r="Z129" s="12"/>
+      <c r="AA129" s="12"/>
     </row>
     <row r="130" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -31876,9 +31956,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="25" man="1"/>
-    <brk id="76" max="25" man="1"/>
-    <brk id="94" max="25" man="1"/>
+    <brk id="38" max="26" man="1"/>
+    <brk id="76" max="26" man="1"/>
+    <brk id="94" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>